--- a/demo_data/timeoftips.xlsx
+++ b/demo_data/timeoftips.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bioretention_mechanisms_2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bioretention_rain/demo_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_3CE24234A469D30702FF31D2F8375B0684942185" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B513F33B-E7B7-4B39-B455-497F304E8A7D}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_3CE24234A469D30702FF31D2F8375B0684942185" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D9C35E3-33F2-470E-A9C8-F6DAD3304D51}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rainfall_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -25,7 +25,7 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>r3ba1r01r</t>
+    <t>rainfall_value</t>
   </si>
 </sst>
 </file>
@@ -434,13 +434,13 @@
   <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3518,9 +3518,29 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFEF5269-49F5-450E-A86B-ED1469C4DB4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFEF5269-49F5-450E-A86B-ED1469C4DB4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
+    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4372D80-45EE-4CDF-A20C-5A944B56B210}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4372D80-45EE-4CDF-A20C-5A944B56B210}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/demo_data/timeoftips.xlsx
+++ b/demo_data/timeoftips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bioretention_rain/demo_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_3CE24234A469D30702FF31D2F8375B0684942185" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D9C35E3-33F2-470E-A9C8-F6DAD3304D51}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_3CE24234A469D30702FF31D2F8375B0684942185" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8747A87-9AA2-462D-B48D-ED80A8633F5A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rainfall_data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>rainfall_value</t>
+    <t>rain</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/demo_data/timeoftips.xlsx
+++ b/demo_data/timeoftips.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bioretention_rain/demo_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duyn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_3CE24234A469D30702FF31D2F8375B0684942185" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8747A87-9AA2-462D-B48D-ED80A8633F5A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0DBA5F-C6BC-4A22-A987-792D5A2998D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="rainfall_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -60,27 +60,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -89,8 +74,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -431,19 +416,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +438,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>18308.707060185185</v>
+        <v>18308.707638888889</v>
       </c>
       <c r="B2">
         <v>0.25400001</v>
@@ -461,7 +446,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>18308.707638888889</v>
+        <v>18308.708449074071</v>
       </c>
       <c r="B3">
         <v>0.25400001</v>
@@ -469,7 +454,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>18308.708449074074</v>
+        <v>18308.709143518521</v>
       </c>
       <c r="B4">
         <v>0.25400001</v>
@@ -477,7 +462,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>18308.709143518518</v>
+        <v>18308.709953703699</v>
       </c>
       <c r="B5">
         <v>0.25400001</v>
@@ -485,7 +470,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>18308.709953703703</v>
+        <v>18308.71157407407</v>
       </c>
       <c r="B6">
         <v>0.25400001</v>
@@ -493,7 +478,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>18308.711574074074</v>
+        <v>18308.71261574074</v>
       </c>
       <c r="B7">
         <v>0.25400001</v>
@@ -501,7 +486,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>18308.71261574074</v>
+        <v>18308.713773148149</v>
       </c>
       <c r="B8">
         <v>0.25400001</v>
@@ -509,7 +494,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>18308.713773148149</v>
+        <v>18308.714930555561</v>
       </c>
       <c r="B9">
         <v>0.25400001</v>
@@ -517,7 +502,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>18308.714930555554</v>
+        <v>18308.71631944444</v>
       </c>
       <c r="B10">
         <v>0.25400001</v>
@@ -525,7 +510,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>18308.716319444444</v>
+        <v>18308.717245370372</v>
       </c>
       <c r="B11">
         <v>0.25400001</v>
@@ -533,7 +518,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>18308.717245370372</v>
+        <v>18308.720717592591</v>
       </c>
       <c r="B12">
         <v>0.25400001</v>
@@ -541,7 +526,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>18308.720717592594</v>
+        <v>18308.721412037041</v>
       </c>
       <c r="B13">
         <v>0.25400001</v>
@@ -549,7 +534,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>18308.721412037037</v>
+        <v>18308.721874999999</v>
       </c>
       <c r="B14">
         <v>0.25400001</v>
@@ -557,7 +542,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>18308.721874999999</v>
+        <v>18308.726041666669</v>
       </c>
       <c r="B15">
         <v>0.25400001</v>
@@ -565,7 +550,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>18308.726041666665</v>
+        <v>18315.895949074071</v>
       </c>
       <c r="B16">
         <v>0.25400001</v>
@@ -573,7 +558,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>18315.895949074074</v>
+        <v>18317.18136574074</v>
       </c>
       <c r="B17">
         <v>0.25400001</v>
@@ -581,7 +566,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>18317.179629629631</v>
+        <v>18317.183449074069</v>
       </c>
       <c r="B18">
         <v>0.25400001</v>
@@ -589,7 +574,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18317.18136574074</v>
+        <v>18317.186921296299</v>
       </c>
       <c r="B19">
         <v>0.25400001</v>
@@ -597,7 +582,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>18317.183449074073</v>
+        <v>18317.192824074071</v>
       </c>
       <c r="B20">
         <v>0.25400001</v>
@@ -605,7 +590,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>18317.186921296296</v>
+        <v>18317.248842592591</v>
       </c>
       <c r="B21">
         <v>0.25400001</v>
@@ -613,7 +598,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>18317.192824074074</v>
+        <v>18317.251504629628</v>
       </c>
       <c r="B22">
         <v>0.25400001</v>
@@ -621,7 +606,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>18317.248842592591</v>
+        <v>18317.255208333328</v>
       </c>
       <c r="B23">
         <v>0.25400001</v>
@@ -629,7 +614,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>18317.251504629628</v>
+        <v>18317.25949074074</v>
       </c>
       <c r="B24">
         <v>0.25400001</v>
@@ -637,7 +622,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>18317.255208333332</v>
+        <v>18317.26701388889</v>
       </c>
       <c r="B25">
         <v>0.25400001</v>
@@ -645,7 +630,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>18317.25949074074</v>
+        <v>18317.281018518519</v>
       </c>
       <c r="B26">
         <v>0.25400001</v>
@@ -653,7 +638,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>18317.26701388889</v>
+        <v>18317.308449074069</v>
       </c>
       <c r="B27">
         <v>0.25400001</v>
@@ -661,7 +646,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>18317.281018518519</v>
+        <v>18317.323958333331</v>
       </c>
       <c r="B28">
         <v>0.25400001</v>
@@ -669,7 +654,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>18317.308449074073</v>
+        <v>18317.417824074069</v>
       </c>
       <c r="B29">
         <v>0.25400001</v>
@@ -677,7 +662,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>18317.323958333334</v>
+        <v>18317.42662037037</v>
       </c>
       <c r="B30">
         <v>0.25400001</v>
@@ -685,7 +670,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>18317.417824074073</v>
+        <v>18317.432986111111</v>
       </c>
       <c r="B31">
         <v>0.25400001</v>
@@ -693,7 +678,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>18317.42662037037</v>
+        <v>18317.4412037037</v>
       </c>
       <c r="B32">
         <v>0.25400001</v>
@@ -701,7 +686,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>18317.432986111111</v>
+        <v>18317.453703703701</v>
       </c>
       <c r="B33">
         <v>0.25400001</v>
@@ -709,7 +694,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>18317.441203703704</v>
+        <v>18317.539236111112</v>
       </c>
       <c r="B34">
         <v>0.25400001</v>
@@ -717,7 +702,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>18317.453703703704</v>
+        <v>18317.53981481482</v>
       </c>
       <c r="B35">
         <v>0.25400001</v>
@@ -725,7 +710,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>18317.539236111112</v>
+        <v>18317.540277777782</v>
       </c>
       <c r="B36">
         <v>0.25400001</v>
@@ -733,7 +718,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>18317.539814814816</v>
+        <v>18317.541203703699</v>
       </c>
       <c r="B37">
         <v>0.25400001</v>
@@ -741,7 +726,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>18317.540277777778</v>
+        <v>18317.542592592588</v>
       </c>
       <c r="B38">
         <v>0.25400001</v>
@@ -749,7 +734,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>18317.541203703702</v>
+        <v>18317.54444444444</v>
       </c>
       <c r="B39">
         <v>0.25400001</v>
@@ -757,7 +742,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>18317.542592592592</v>
+        <v>18317.862847222219</v>
       </c>
       <c r="B40">
         <v>0.25400001</v>
@@ -765,7 +750,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>18317.544444444444</v>
+        <v>18317.86689814815</v>
       </c>
       <c r="B41">
         <v>0.25400001</v>
@@ -773,7 +758,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>18317.862847222223</v>
+        <v>18317.876273148151</v>
       </c>
       <c r="B42">
         <v>0.25400001</v>
@@ -781,7 +766,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>18317.86689814815</v>
+        <v>18317.89675925926</v>
       </c>
       <c r="B43">
         <v>0.25400001</v>
@@ -789,7 +774,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>18317.876273148147</v>
+        <v>18317.915509259259</v>
       </c>
       <c r="B44">
         <v>0.25400001</v>
@@ -797,7 +782,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>18317.89675925926</v>
+        <v>18317.925694444439</v>
       </c>
       <c r="B45">
         <v>0.25400001</v>
@@ -805,7 +790,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>18317.915509259259</v>
+        <v>18317.93171296296</v>
       </c>
       <c r="B46">
         <v>0.25400001</v>
@@ -813,7 +798,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>18317.925694444446</v>
+        <v>18317.935763888891</v>
       </c>
       <c r="B47">
         <v>0.25400001</v>
@@ -821,7 +806,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>18317.931712962964</v>
+        <v>18318.290972222221</v>
       </c>
       <c r="B48">
         <v>0.25400001</v>
@@ -829,7 +814,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>18317.935763888891</v>
+        <v>18318.609143518519</v>
       </c>
       <c r="B49">
         <v>0.25400001</v>
@@ -837,7 +822,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>18318.290972222221</v>
+        <v>18318.663888888888</v>
       </c>
       <c r="B50">
         <v>0.25400001</v>
@@ -845,7 +830,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>18318.609143518519</v>
+        <v>18318.673958333329</v>
       </c>
       <c r="B51">
         <v>0.25400001</v>
@@ -853,7 +838,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>18318.663888888888</v>
+        <v>18318.68240740741</v>
       </c>
       <c r="B52">
         <v>0.25400001</v>
@@ -861,7 +846,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>18318.673958333333</v>
+        <v>18318.692824074071</v>
       </c>
       <c r="B53">
         <v>0.25400001</v>
@@ -869,7 +854,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>18318.682407407407</v>
+        <v>18318.708101851851</v>
       </c>
       <c r="B54">
         <v>0.25400001</v>
@@ -877,7 +862,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>18318.692824074074</v>
+        <v>18318.725115740741</v>
       </c>
       <c r="B55">
         <v>0.25400001</v>
@@ -885,7 +870,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>18318.708101851851</v>
+        <v>18318.735532407409</v>
       </c>
       <c r="B56">
         <v>0.25400001</v>
@@ -893,7 +878,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>18318.725115740741</v>
+        <v>18318.745833333331</v>
       </c>
       <c r="B57">
         <v>0.25400001</v>
@@ -901,7 +886,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>18318.735532407409</v>
+        <v>18318.753819444439</v>
       </c>
       <c r="B58">
         <v>0.25400001</v>
@@ -909,7 +894,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>18318.745833333334</v>
+        <v>18318.792939814819</v>
       </c>
       <c r="B59">
         <v>0.25400001</v>
@@ -917,7 +902,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>18318.753819444446</v>
+        <v>18319.127083333329</v>
       </c>
       <c r="B60">
         <v>0.25400001</v>
@@ -925,7 +910,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>18318.792939814815</v>
+        <v>18319.131944444449</v>
       </c>
       <c r="B61">
         <v>0.25400001</v>
@@ -933,7 +918,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>18319.127083333333</v>
+        <v>18319.133217592589</v>
       </c>
       <c r="B62">
         <v>0.25400001</v>
@@ -941,7 +926,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>18319.131944444445</v>
+        <v>18319.134259259259</v>
       </c>
       <c r="B63">
         <v>0.25400001</v>
@@ -949,7 +934,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>18319.133217592593</v>
+        <v>18319.136342592588</v>
       </c>
       <c r="B64">
         <v>0.25400001</v>
@@ -957,7 +942,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>18319.134259259259</v>
+        <v>18319.137500000001</v>
       </c>
       <c r="B65">
         <v>0.25400001</v>
@@ -965,7 +950,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>18319.136342592592</v>
+        <v>18319.138541666671</v>
       </c>
       <c r="B66">
         <v>0.25400001</v>
@@ -973,7 +958,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>18319.137500000001</v>
+        <v>18319.139467592591</v>
       </c>
       <c r="B67">
         <v>0.25400001</v>
@@ -981,7 +966,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>18319.138541666667</v>
+        <v>18319.140393518519</v>
       </c>
       <c r="B68">
         <v>0.25400001</v>
@@ -989,7 +974,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>18319.139467592591</v>
+        <v>18319.14131944445</v>
       </c>
       <c r="B69">
         <v>0.25400001</v>
@@ -997,7 +982,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>18319.140393518519</v>
+        <v>18319.14201388889</v>
       </c>
       <c r="B70">
         <v>0.25400001</v>
@@ -1005,7 +990,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>18319.141319444443</v>
+        <v>18319.142824074079</v>
       </c>
       <c r="B71">
         <v>0.25400001</v>
@@ -1013,7 +998,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>18319.14201388889</v>
+        <v>18319.14340277778</v>
       </c>
       <c r="B72">
         <v>0.25400001</v>
@@ -1021,7 +1006,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>18319.142824074075</v>
+        <v>18319.144212962961</v>
       </c>
       <c r="B73">
         <v>0.25400001</v>
@@ -1029,7 +1014,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>18319.14340277778</v>
+        <v>18319.145254629631</v>
       </c>
       <c r="B74">
         <v>0.25400001</v>
@@ -1037,7 +1022,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>18319.144212962961</v>
+        <v>18319.14606481481</v>
       </c>
       <c r="B75">
         <v>0.25400001</v>
@@ -1045,7 +1030,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>18319.145254629631</v>
+        <v>18319.148611111112</v>
       </c>
       <c r="B76">
         <v>0.25400001</v>
@@ -1053,7 +1038,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>18319.146064814813</v>
+        <v>18319.151273148149</v>
       </c>
       <c r="B77">
         <v>0.25400001</v>
@@ -1061,7 +1046,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>18319.148611111112</v>
+        <v>18319.15393518519</v>
       </c>
       <c r="B78">
         <v>0.25400001</v>
@@ -1069,7 +1054,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>18319.151273148149</v>
+        <v>18319.155787037042</v>
       </c>
       <c r="B79">
         <v>0.25400001</v>
@@ -1077,7 +1062,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>18319.153935185186</v>
+        <v>18319.15763888889</v>
       </c>
       <c r="B80">
         <v>0.25400001</v>
@@ -1085,7 +1070,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>18319.155787037038</v>
+        <v>18319.159143518518</v>
       </c>
       <c r="B81">
         <v>0.25400001</v>
@@ -1093,7 +1078,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>18319.15763888889</v>
+        <v>18319.161574074071</v>
       </c>
       <c r="B82">
         <v>0.25400001</v>
@@ -1101,7 +1086,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>18319.159143518518</v>
+        <v>18319.163888888888</v>
       </c>
       <c r="B83">
         <v>0.25400001</v>
@@ -1109,7 +1094,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>18319.161574074074</v>
+        <v>18319.165972222221</v>
       </c>
       <c r="B84">
         <v>0.25400001</v>
@@ -1117,7 +1102,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>18319.163888888888</v>
+        <v>18319.1681712963</v>
       </c>
       <c r="B85">
         <v>0.25400001</v>
@@ -1125,7 +1110,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>18319.165972222221</v>
+        <v>18319.171296296299</v>
       </c>
       <c r="B86">
         <v>0.25400001</v>
@@ -1133,7 +1118,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>18319.168171296296</v>
+        <v>18319.177430555559</v>
       </c>
       <c r="B87">
         <v>0.25400001</v>
@@ -1141,7 +1126,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>18319.171296296296</v>
+        <v>18319.181597222221</v>
       </c>
       <c r="B88">
         <v>0.25400001</v>
@@ -1149,7 +1134,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>18319.177430555555</v>
+        <v>18319.185879629629</v>
       </c>
       <c r="B89">
         <v>0.25400001</v>
@@ -1157,7 +1142,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>18319.181597222221</v>
+        <v>18319.189467592591</v>
       </c>
       <c r="B90">
         <v>0.25400001</v>
@@ -1165,7 +1150,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>18319.185879629629</v>
+        <v>18319.19259259259</v>
       </c>
       <c r="B91">
         <v>0.25400001</v>
@@ -1173,7 +1158,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>18319.189467592594</v>
+        <v>18319.19467592593</v>
       </c>
       <c r="B92">
         <v>0.25400001</v>
@@ -1181,7 +1166,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>18319.192592592593</v>
+        <v>18319.19699074074</v>
       </c>
       <c r="B93">
         <v>0.25400001</v>
@@ -1189,7 +1174,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>18319.194675925926</v>
+        <v>18319.199884259258</v>
       </c>
       <c r="B94">
         <v>0.25400001</v>
@@ -1197,7 +1182,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>18319.19699074074</v>
+        <v>18319.203125</v>
       </c>
       <c r="B95">
         <v>0.25400001</v>
@@ -1205,7 +1190,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>18319.199884259258</v>
+        <v>18319.209837962961</v>
       </c>
       <c r="B96">
         <v>0.25400001</v>
@@ -1213,7 +1198,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>18319.203125</v>
+        <v>18319.21770833333</v>
       </c>
       <c r="B97">
         <v>0.25400001</v>
@@ -1221,7 +1206,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>18319.209837962964</v>
+        <v>18319.220833333329</v>
       </c>
       <c r="B98">
         <v>0.25400001</v>
@@ -1229,7 +1214,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>18319.217708333334</v>
+        <v>18319.223611111109</v>
       </c>
       <c r="B99">
         <v>0.25400001</v>
@@ -1237,7 +1222,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>18319.220833333333</v>
+        <v>18319.227083333331</v>
       </c>
       <c r="B100">
         <v>0.25400001</v>
@@ -1245,7 +1230,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>18319.223611111112</v>
+        <v>18319.231712962959</v>
       </c>
       <c r="B101">
         <v>0.25400001</v>
@@ -1253,7 +1238,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>18319.227083333335</v>
+        <v>18319.234259259261</v>
       </c>
       <c r="B102">
         <v>0.25400001</v>
@@ -1261,7 +1246,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>18319.231712962963</v>
+        <v>18319.237268518518</v>
       </c>
       <c r="B103">
         <v>0.25400001</v>
@@ -1269,7 +1254,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>18319.234259259258</v>
+        <v>18319.240624999999</v>
       </c>
       <c r="B104">
         <v>0.25400001</v>
@@ -1277,7 +1262,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>18319.237268518518</v>
+        <v>18319.245486111111</v>
       </c>
       <c r="B105">
         <v>0.25400001</v>
@@ -1285,7 +1270,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>18319.240624999999</v>
+        <v>18319.24895833333</v>
       </c>
       <c r="B106">
         <v>0.25400001</v>
@@ -1293,7 +1278,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>18319.245486111111</v>
+        <v>18319.252893518518</v>
       </c>
       <c r="B107">
         <v>0.25400001</v>
@@ -1301,7 +1286,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>18319.248958333334</v>
+        <v>18319.256828703699</v>
       </c>
       <c r="B108">
         <v>0.25400001</v>
@@ -1309,7 +1294,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>18319.252893518518</v>
+        <v>18319.260069444441</v>
       </c>
       <c r="B109">
         <v>0.25400001</v>
@@ -1317,7 +1302,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>18319.256828703703</v>
+        <v>18319.26319444444</v>
       </c>
       <c r="B110">
         <v>0.25400001</v>
@@ -1325,7 +1310,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>18319.260069444445</v>
+        <v>18319.26666666667</v>
       </c>
       <c r="B111">
         <v>0.25400001</v>
@@ -1333,7 +1318,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>18319.263194444444</v>
+        <v>18319.272222222218</v>
       </c>
       <c r="B112">
         <v>0.25400001</v>
@@ -1341,7 +1326,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>18319.266666666666</v>
+        <v>18319.27476851852</v>
       </c>
       <c r="B113">
         <v>0.25400001</v>
@@ -1349,7 +1334,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>18319.272222222222</v>
+        <v>18319.278009259258</v>
       </c>
       <c r="B114">
         <v>0.25400001</v>
@@ -1357,7 +1342,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>18319.274768518517</v>
+        <v>18319.28194444445</v>
       </c>
       <c r="B115">
         <v>0.25400001</v>
@@ -1365,7 +1350,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>18319.278009259258</v>
+        <v>18319.2849537037</v>
       </c>
       <c r="B116">
         <v>0.25400001</v>
@@ -1373,7 +1358,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>18319.281944444443</v>
+        <v>18319.289004629631</v>
       </c>
       <c r="B117">
         <v>0.25400001</v>
@@ -1381,7 +1366,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>18319.284953703704</v>
+        <v>18319.292245370369</v>
       </c>
       <c r="B118">
         <v>0.25400001</v>
@@ -1389,7 +1374,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>18319.289004629631</v>
+        <v>18319.295023148152</v>
       </c>
       <c r="B119">
         <v>0.25400001</v>
@@ -1397,7 +1382,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>18319.292245370369</v>
+        <v>18319.298379629628</v>
       </c>
       <c r="B120">
         <v>0.25400001</v>
@@ -1405,7 +1390,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>18319.295023148148</v>
+        <v>18319.302083333328</v>
       </c>
       <c r="B121">
         <v>0.25400001</v>
@@ -1413,7 +1398,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>18319.298379629628</v>
+        <v>18319.30497685185</v>
       </c>
       <c r="B122">
         <v>0.25400001</v>
@@ -1421,7 +1406,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>18319.302083333332</v>
+        <v>18319.306828703699</v>
       </c>
       <c r="B123">
         <v>0.25400001</v>
@@ -1429,7 +1414,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>18319.30497685185</v>
+        <v>18319.309259259258</v>
       </c>
       <c r="B124">
         <v>0.25400001</v>
@@ -1437,7 +1422,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>18319.306828703702</v>
+        <v>18319.31157407408</v>
       </c>
       <c r="B125">
         <v>0.25400001</v>
@@ -1445,7 +1430,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>18319.309259259258</v>
+        <v>18319.31342592592</v>
       </c>
       <c r="B126">
         <v>0.25400001</v>
@@ -1453,7 +1438,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>18319.311574074072</v>
+        <v>18319.315624999999</v>
       </c>
       <c r="B127">
         <v>0.25400001</v>
@@ -1461,7 +1446,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>18319.313425925928</v>
+        <v>18319.317476851851</v>
       </c>
       <c r="B128">
         <v>0.25400001</v>
@@ -1469,7 +1454,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>18319.315624999999</v>
+        <v>18319.319097222218</v>
       </c>
       <c r="B129">
         <v>0.25400001</v>
@@ -1477,7 +1462,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>18319.317476851851</v>
+        <v>18319.321296296301</v>
       </c>
       <c r="B130">
         <v>0.25400001</v>
@@ -1485,7 +1470,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>18319.319097222222</v>
+        <v>18319.323611111111</v>
       </c>
       <c r="B131">
         <v>0.25400001</v>
@@ -1493,7 +1478,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>18319.321296296297</v>
+        <v>18319.326157407409</v>
       </c>
       <c r="B132">
         <v>0.25400001</v>
@@ -1501,7 +1486,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>18319.323611111111</v>
+        <v>18319.32777777778</v>
       </c>
       <c r="B133">
         <v>0.25400001</v>
@@ -1509,7 +1494,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>18319.326157407406</v>
+        <v>18319.328935185189</v>
       </c>
       <c r="B134">
         <v>0.25400001</v>
@@ -1517,7 +1502,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>18319.327777777777</v>
+        <v>18319.330208333329</v>
       </c>
       <c r="B135">
         <v>0.25400001</v>
@@ -1525,7 +1510,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>18319.328935185185</v>
+        <v>18319.331597222219</v>
       </c>
       <c r="B136">
         <v>0.25400001</v>
@@ -1533,7 +1518,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>18319.330208333333</v>
+        <v>18319.333333333328</v>
       </c>
       <c r="B137">
         <v>0.25400001</v>
@@ -1541,7 +1526,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>18319.331597222223</v>
+        <v>18319.335069444449</v>
       </c>
       <c r="B138">
         <v>0.25400001</v>
@@ -1549,7 +1534,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>18319.333333333332</v>
+        <v>18319.336805555551</v>
       </c>
       <c r="B139">
         <v>0.25400001</v>
@@ -1557,7 +1542,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>18319.335069444445</v>
+        <v>18319.338773148149</v>
       </c>
       <c r="B140">
         <v>0.25400001</v>
@@ -1565,7 +1550,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>18319.336805555555</v>
+        <v>18319.341087962959</v>
       </c>
       <c r="B141">
         <v>0.25400001</v>
@@ -1573,7 +1558,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>18319.338773148149</v>
+        <v>18319.342939814811</v>
       </c>
       <c r="B142">
         <v>0.25400001</v>
@@ -1581,7 +1566,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>18319.341087962963</v>
+        <v>18319.344907407409</v>
       </c>
       <c r="B143">
         <v>0.25400001</v>
@@ -1589,7 +1574,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>18319.342939814815</v>
+        <v>18319.346643518518</v>
       </c>
       <c r="B144">
         <v>0.25400001</v>
@@ -1597,7 +1582,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>18319.344907407409</v>
+        <v>18319.348958333328</v>
       </c>
       <c r="B145">
         <v>0.25400001</v>
@@ -1605,7 +1590,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>18319.346643518518</v>
+        <v>18319.353125000001</v>
       </c>
       <c r="B146">
         <v>0.25400001</v>
@@ -1613,7 +1598,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>18319.348958333332</v>
+        <v>18319.357407407409</v>
       </c>
       <c r="B147">
         <v>0.25400001</v>
@@ -1621,7 +1606,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>18319.353125000001</v>
+        <v>18319.361111111109</v>
       </c>
       <c r="B148">
         <v>0.25400001</v>
@@ -1629,7 +1614,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>18319.357407407406</v>
+        <v>18319.364236111109</v>
       </c>
       <c r="B149">
         <v>0.25400001</v>
@@ -1637,7 +1622,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>18319.361111111109</v>
+        <v>18319.367245370369</v>
       </c>
       <c r="B150">
         <v>0.25400001</v>
@@ -1645,7 +1630,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>18319.364236111112</v>
+        <v>18319.370486111111</v>
       </c>
       <c r="B151">
         <v>0.25400001</v>
@@ -1653,7 +1638,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>18319.367245370369</v>
+        <v>18319.373495370372</v>
       </c>
       <c r="B152">
         <v>0.25400001</v>
@@ -1661,7 +1646,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>18319.370486111111</v>
+        <v>18319.376851851848</v>
       </c>
       <c r="B153">
         <v>0.25400001</v>
@@ -1669,7 +1654,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>18319.373495370372</v>
+        <v>18319.38009259259</v>
       </c>
       <c r="B154">
         <v>0.25400001</v>
@@ -1677,7 +1662,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>18319.376851851852</v>
+        <v>18319.383912037039</v>
       </c>
       <c r="B155">
         <v>0.25400001</v>
@@ -1685,7 +1670,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>18319.380092592593</v>
+        <v>18319.38831018519</v>
       </c>
       <c r="B156">
         <v>0.25400001</v>
@@ -1693,7 +1678,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>18319.383912037036</v>
+        <v>18319.39027777778</v>
       </c>
       <c r="B157">
         <v>0.25400001</v>
@@ -1701,7 +1686,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>18319.388310185186</v>
+        <v>18319.39305555556</v>
       </c>
       <c r="B158">
         <v>0.25400001</v>
@@ -1709,7 +1694,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>18319.390277777777</v>
+        <v>18319.396643518521</v>
       </c>
       <c r="B159">
         <v>0.25400001</v>
@@ -1717,7 +1702,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>18319.393055555556</v>
+        <v>18319.399421296301</v>
       </c>
       <c r="B160">
         <v>0.25400001</v>
@@ -1725,7 +1710,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>18319.396643518518</v>
+        <v>18319.402777777781</v>
       </c>
       <c r="B161">
         <v>0.25400001</v>
@@ -1733,7 +1718,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>18319.399421296297</v>
+        <v>18319.40532407408</v>
       </c>
       <c r="B162">
         <v>0.25400001</v>
@@ -1741,7 +1726,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>18319.402777777777</v>
+        <v>18319.407407407409</v>
       </c>
       <c r="B163">
         <v>0.25400001</v>
@@ -1749,7 +1734,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>18319.405324074072</v>
+        <v>18319.409490740742</v>
       </c>
       <c r="B164">
         <v>0.25400001</v>
@@ -1757,7 +1742,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>18319.407407407409</v>
+        <v>18319.413541666669</v>
       </c>
       <c r="B165">
         <v>0.25400001</v>
@@ -1765,7 +1750,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>18319.409490740742</v>
+        <v>18319.416666666672</v>
       </c>
       <c r="B166">
         <v>0.25400001</v>
@@ -1773,7 +1758,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>18319.413541666665</v>
+        <v>18319.419328703709</v>
       </c>
       <c r="B167">
         <v>0.25400001</v>
@@ -1781,7 +1766,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>18319.416666666668</v>
+        <v>18319.423611111109</v>
       </c>
       <c r="B168">
         <v>0.25400001</v>
@@ -1789,7 +1774,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>18319.419328703705</v>
+        <v>18319.426388888889</v>
       </c>
       <c r="B169">
         <v>0.25400001</v>
@@ -1797,7 +1782,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>18319.423611111109</v>
+        <v>18319.42905092593</v>
       </c>
       <c r="B170">
         <v>0.25400001</v>
@@ -1805,7 +1790,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>18319.426388888889</v>
+        <v>18319.434375000001</v>
       </c>
       <c r="B171">
         <v>0.25400001</v>
@@ -1813,7 +1798,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>18319.429050925926</v>
+        <v>18319.43715277778</v>
       </c>
       <c r="B172">
         <v>0.25400001</v>
@@ -1821,7 +1806,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>18319.434375000001</v>
+        <v>18319.439467592591</v>
       </c>
       <c r="B173">
         <v>0.25400001</v>
@@ -1829,7 +1814,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>18319.437152777777</v>
+        <v>18319.442361111109</v>
       </c>
       <c r="B174">
         <v>0.25400001</v>
@@ -1837,7 +1822,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>18319.439467592594</v>
+        <v>18319.445370370369</v>
       </c>
       <c r="B175">
         <v>0.25400001</v>
@@ -1845,7 +1830,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>18319.442361111112</v>
+        <v>18319.447800925929</v>
       </c>
       <c r="B176">
         <v>0.25400001</v>
@@ -1853,7 +1838,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>18319.445370370369</v>
+        <v>18319.450462962959</v>
       </c>
       <c r="B177">
         <v>0.25400001</v>
@@ -1861,7 +1846,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>18319.447800925926</v>
+        <v>18319.453356481481</v>
       </c>
       <c r="B178">
         <v>0.25400001</v>
@@ -1869,7 +1854,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>18319.450462962963</v>
+        <v>18319.45648148148</v>
       </c>
       <c r="B179">
         <v>0.25400001</v>
@@ -1877,7 +1862,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>18319.453356481481</v>
+        <v>18319.459027777779</v>
       </c>
       <c r="B180">
         <v>0.25400001</v>
@@ -1885,7 +1870,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>18319.45648148148</v>
+        <v>18319.461342592589</v>
       </c>
       <c r="B181">
         <v>0.25400001</v>
@@ -1893,7 +1878,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>18319.459027777779</v>
+        <v>18319.464120370369</v>
       </c>
       <c r="B182">
         <v>0.25400001</v>
@@ -1901,7 +1886,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>18319.461342592593</v>
+        <v>18319.46643518519</v>
       </c>
       <c r="B183">
         <v>0.25400001</v>
@@ -1909,7 +1894,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>18319.464120370369</v>
+        <v>18319.468865740739</v>
       </c>
       <c r="B184">
         <v>0.25400001</v>
@@ -1917,7 +1902,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>18319.466435185186</v>
+        <v>18319.471874999999</v>
       </c>
       <c r="B185">
         <v>0.25400001</v>
@@ -1925,7 +1910,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>18319.468865740742</v>
+        <v>18319.47789351852</v>
       </c>
       <c r="B186">
         <v>0.25400001</v>
@@ -1933,7 +1918,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>18319.471874999999</v>
+        <v>18319.480787037039</v>
       </c>
       <c r="B187">
         <v>0.25400001</v>
@@ -1941,7 +1926,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>18319.477893518517</v>
+        <v>18319.483912037042</v>
       </c>
       <c r="B188">
         <v>0.25400001</v>
@@ -1949,7 +1934,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>18319.480787037039</v>
+        <v>18319.490740740741</v>
       </c>
       <c r="B189">
         <v>0.25400001</v>
@@ -1957,7 +1942,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>18319.483912037038</v>
+        <v>18319.501273148151</v>
       </c>
       <c r="B190">
         <v>0.25400001</v>
@@ -1965,7 +1950,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>18319.490740740741</v>
+        <v>18319.5037037037</v>
       </c>
       <c r="B191">
         <v>0.25400001</v>
@@ -1973,7 +1958,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>18319.501273148147</v>
+        <v>18319.505671296301</v>
       </c>
       <c r="B192">
         <v>0.25400001</v>
@@ -1981,7 +1966,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>18319.503703703704</v>
+        <v>18319.51423611111</v>
       </c>
       <c r="B193">
         <v>0.25400001</v>
@@ -1989,7 +1974,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>18319.505671296298</v>
+        <v>18319.51805555556</v>
       </c>
       <c r="B194">
         <v>0.25400001</v>
@@ -1997,7 +1982,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>18319.51423611111</v>
+        <v>18319.53055555555</v>
       </c>
       <c r="B195">
         <v>0.25400001</v>
@@ -2005,7 +1990,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>18319.518055555556</v>
+        <v>18319.652777777781</v>
       </c>
       <c r="B196">
         <v>0.25400001</v>
@@ -2013,7 +1998,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>18319.530555555557</v>
+        <v>18319.65694444445</v>
       </c>
       <c r="B197">
         <v>0.25400001</v>
@@ -2021,7 +2006,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>18319.652777777777</v>
+        <v>18319.661226851851</v>
       </c>
       <c r="B198">
         <v>0.25400001</v>
@@ -2029,7 +2014,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>18319.656944444443</v>
+        <v>18319.66435185185</v>
       </c>
       <c r="B199">
         <v>0.25400001</v>
@@ -2037,7 +2022,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>18319.661226851851</v>
+        <v>18319.668287037039</v>
       </c>
       <c r="B200">
         <v>0.25400001</v>
@@ -2045,7 +2030,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>18319.66435185185</v>
+        <v>18319.677083333328</v>
       </c>
       <c r="B201">
         <v>0.25400001</v>
@@ -2053,7 +2038,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>18319.668287037039</v>
+        <v>18319.685879629629</v>
       </c>
       <c r="B202">
         <v>0.25400001</v>
@@ -2061,7 +2046,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>18319.677083333332</v>
+        <v>18319.691666666669</v>
       </c>
       <c r="B203">
         <v>0.25400001</v>
@@ -2069,7 +2054,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>18319.685879629629</v>
+        <v>18319.694444444449</v>
       </c>
       <c r="B204">
         <v>0.25400001</v>
@@ -2077,7 +2062,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>18319.691666666666</v>
+        <v>18319.69768518519</v>
       </c>
       <c r="B205">
         <v>0.25400001</v>
@@ -2085,7 +2070,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>18319.694444444445</v>
+        <v>18319.755555555559</v>
       </c>
       <c r="B206">
         <v>0.25400001</v>
@@ -2093,7 +2078,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>18319.697685185187</v>
+        <v>18319.804861111112</v>
       </c>
       <c r="B207">
         <v>0.25400001</v>
@@ -2101,7 +2086,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>18319.755555555555</v>
+        <v>18319.808217592588</v>
       </c>
       <c r="B208">
         <v>0.25400001</v>
@@ -2109,7 +2094,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>18319.804861111112</v>
+        <v>18319.810532407409</v>
       </c>
       <c r="B209">
         <v>0.25400001</v>
@@ -2117,7 +2102,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>18319.808217592592</v>
+        <v>18319.812731481481</v>
       </c>
       <c r="B210">
         <v>0.25400001</v>
@@ -2125,7 +2110,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>18319.810532407406</v>
+        <v>18319.8162037037</v>
       </c>
       <c r="B211">
         <v>0.25400001</v>
@@ -2133,7 +2118,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>18319.812731481481</v>
+        <v>18319.85185185185</v>
       </c>
       <c r="B212">
         <v>0.25400001</v>
@@ -2141,7 +2126,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>18319.816203703704</v>
+        <v>18319.85706018519</v>
       </c>
       <c r="B213">
         <v>0.25400001</v>
@@ -2149,7 +2134,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>18319.85185185185</v>
+        <v>18319.901620370369</v>
       </c>
       <c r="B214">
         <v>0.25400001</v>
@@ -2157,7 +2142,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>18319.857060185186</v>
+        <v>18319.908101851848</v>
       </c>
       <c r="B215">
         <v>0.25400001</v>
@@ -2165,7 +2150,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>18319.901620370369</v>
+        <v>18319.9181712963</v>
       </c>
       <c r="B216">
         <v>0.25400001</v>
@@ -2173,7 +2158,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>18319.908101851852</v>
+        <v>18319.923379629628</v>
       </c>
       <c r="B217">
         <v>0.25400001</v>
@@ -2181,7 +2166,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>18319.918171296296</v>
+        <v>18319.928703703699</v>
       </c>
       <c r="B218">
         <v>0.25400001</v>
@@ -2189,7 +2174,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>18319.923379629628</v>
+        <v>18319.93240740741</v>
       </c>
       <c r="B219">
         <v>0.25400001</v>
@@ -2197,7 +2182,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>18319.928703703703</v>
+        <v>18319.93657407408</v>
       </c>
       <c r="B220">
         <v>0.25400001</v>
@@ -2205,7 +2190,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>18319.932407407407</v>
+        <v>18319.93981481481</v>
       </c>
       <c r="B221">
         <v>0.25400001</v>
@@ -2213,7 +2198,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>18319.936574074072</v>
+        <v>18319.94456018518</v>
       </c>
       <c r="B222">
         <v>0.25400001</v>
@@ -2221,7 +2206,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>18319.939814814814</v>
+        <v>18319.956597222219</v>
       </c>
       <c r="B223">
         <v>0.25400001</v>
@@ -2229,7 +2214,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>18319.944560185184</v>
+        <v>18319.97106481481</v>
       </c>
       <c r="B224">
         <v>0.25400001</v>
@@ -2237,7 +2222,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>18319.956597222223</v>
+        <v>18319.974074074071</v>
       </c>
       <c r="B225">
         <v>0.25400001</v>
@@ -2245,7 +2230,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>18319.971064814814</v>
+        <v>18319.97592592593</v>
       </c>
       <c r="B226">
         <v>0.25400001</v>
@@ -2253,7 +2238,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>18319.974074074074</v>
+        <v>18319.977777777782</v>
       </c>
       <c r="B227">
         <v>0.25400001</v>
@@ -2261,7 +2246,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>18319.975925925926</v>
+        <v>18320.029629629629</v>
       </c>
       <c r="B228">
         <v>0.25400001</v>
@@ -2269,7 +2254,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>18319.977777777778</v>
+        <v>18320.032523148151</v>
       </c>
       <c r="B229">
         <v>0.25400001</v>
@@ -2277,7 +2262,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>18320.029629629629</v>
+        <v>18320.036226851851</v>
       </c>
       <c r="B230">
         <v>0.25400001</v>
@@ -2285,7 +2270,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>18320.032523148147</v>
+        <v>18320.04212962963</v>
       </c>
       <c r="B231">
         <v>0.25400001</v>
@@ -2293,7 +2278,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>18320.036226851851</v>
+        <v>18321.740393518521</v>
       </c>
       <c r="B232">
         <v>0.25400001</v>
@@ -2301,7 +2286,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>18320.04212962963</v>
+        <v>18321.909722222219</v>
       </c>
       <c r="B233">
         <v>0.25400001</v>
@@ -2309,7 +2294,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>18321.710532407407</v>
+        <v>18322.12638888889</v>
       </c>
       <c r="B234">
         <v>0.25400001</v>
@@ -2317,7 +2302,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>18321.740393518518</v>
+        <v>18322.145486111109</v>
       </c>
       <c r="B235">
         <v>0.25400001</v>
@@ -2325,7 +2310,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>18321.909722222223</v>
+        <v>18322.163888888888</v>
       </c>
       <c r="B236">
         <v>0.25400001</v>
@@ -2333,7 +2318,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>18322.12638888889</v>
+        <v>18322.203356481481</v>
       </c>
       <c r="B237">
         <v>0.25400001</v>
@@ -2341,7 +2326,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>18322.145486111112</v>
+        <v>18322.204861111109</v>
       </c>
       <c r="B238">
         <v>0.25400001</v>
@@ -2349,7 +2334,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>18322.163888888888</v>
+        <v>18322.209837962961</v>
       </c>
       <c r="B239">
         <v>0.25400001</v>
@@ -2357,7 +2342,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>18322.203356481481</v>
+        <v>18322.21168981482</v>
       </c>
       <c r="B240">
         <v>0.25400001</v>
@@ -2365,7 +2350,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>18322.204861111109</v>
+        <v>18322.213888888891</v>
       </c>
       <c r="B241">
         <v>0.25400001</v>
@@ -2373,7 +2358,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>18322.209837962964</v>
+        <v>18322.21597222222</v>
       </c>
       <c r="B242">
         <v>0.25400001</v>
@@ -2381,7 +2366,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>18322.211689814816</v>
+        <v>18322.226388888888</v>
       </c>
       <c r="B243">
         <v>0.25400001</v>
@@ -2389,7 +2374,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>18322.213888888888</v>
+        <v>18322.914004629631</v>
       </c>
       <c r="B244">
         <v>0.25400001</v>
@@ -2397,7 +2382,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>18322.21597222222</v>
+        <v>18322.920601851849</v>
       </c>
       <c r="B245">
         <v>0.25400001</v>
@@ -2405,7 +2390,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>18322.226388888888</v>
+        <v>18322.92627314815</v>
       </c>
       <c r="B246">
         <v>0.25400001</v>
@@ -2413,7 +2398,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>18322.902546296296</v>
+        <v>18322.92997685185</v>
       </c>
       <c r="B247">
         <v>0.25400001</v>
@@ -2421,7 +2406,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>18322.914004629631</v>
+        <v>18322.933217592588</v>
       </c>
       <c r="B248">
         <v>0.25400001</v>
@@ -2429,7 +2414,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>18322.920601851853</v>
+        <v>18322.935995370372</v>
       </c>
       <c r="B249">
         <v>0.25400001</v>
@@ -2437,7 +2422,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>18322.926273148147</v>
+        <v>18322.938657407409</v>
       </c>
       <c r="B250">
         <v>0.25400001</v>
@@ -2445,7 +2430,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>18322.92997685185</v>
+        <v>18322.942013888889</v>
       </c>
       <c r="B251">
         <v>0.25400001</v>
@@ -2453,7 +2438,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>18322.933217592592</v>
+        <v>18322.944328703699</v>
       </c>
       <c r="B252">
         <v>0.25400001</v>
@@ -2461,7 +2446,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>18322.935995370372</v>
+        <v>18322.945833333331</v>
       </c>
       <c r="B253">
         <v>0.25400001</v>
@@ -2469,7 +2454,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>18322.938657407409</v>
+        <v>18322.947569444441</v>
       </c>
       <c r="B254">
         <v>0.25400001</v>
@@ -2477,7 +2462,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>18322.942013888889</v>
+        <v>18322.949189814819</v>
       </c>
       <c r="B255">
         <v>0.25400001</v>
@@ -2485,7 +2470,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>18322.944328703703</v>
+        <v>18322.951273148152</v>
       </c>
       <c r="B256">
         <v>0.25400001</v>
@@ -2493,7 +2478,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>18322.945833333335</v>
+        <v>18322.952893518519</v>
       </c>
       <c r="B257">
         <v>0.25400001</v>
@@ -2501,7 +2486,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>18322.947569444445</v>
+        <v>18322.954398148151</v>
       </c>
       <c r="B258">
         <v>0.25400001</v>
@@ -2509,7 +2494,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>18322.949189814815</v>
+        <v>18322.955671296291</v>
       </c>
       <c r="B259">
         <v>0.25400001</v>
@@ -2517,7 +2502,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>18322.951273148148</v>
+        <v>18322.956944444439</v>
       </c>
       <c r="B260">
         <v>0.25400001</v>
@@ -2525,7 +2510,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>18322.952893518519</v>
+        <v>18322.958101851851</v>
       </c>
       <c r="B261">
         <v>0.25400001</v>
@@ -2533,7 +2518,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>18322.954398148147</v>
+        <v>18322.959722222218</v>
       </c>
       <c r="B262">
         <v>0.25400001</v>
@@ -2541,7 +2526,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>18322.955671296295</v>
+        <v>18322.96122685185</v>
       </c>
       <c r="B263">
         <v>0.25400001</v>
@@ -2549,7 +2534,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>18322.956944444446</v>
+        <v>18322.962847222221</v>
       </c>
       <c r="B264">
         <v>0.25400001</v>
@@ -2557,7 +2542,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>18322.958101851851</v>
+        <v>18322.964583333331</v>
       </c>
       <c r="B265">
         <v>0.25400001</v>
@@ -2565,7 +2550,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>18322.959722222222</v>
+        <v>18322.966550925921</v>
       </c>
       <c r="B266">
         <v>0.25400001</v>
@@ -2573,7 +2558,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>18322.96122685185</v>
+        <v>18322.96909722222</v>
       </c>
       <c r="B267">
         <v>0.25400001</v>
@@ -2581,7 +2566,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>18322.962847222221</v>
+        <v>18322.972800925931</v>
       </c>
       <c r="B268">
         <v>0.25400001</v>
@@ -2589,7 +2574,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <v>18322.964583333334</v>
+        <v>18323.01284722222</v>
       </c>
       <c r="B269">
         <v>0.25400001</v>
@@ -2597,7 +2582,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>18322.966550925925</v>
+        <v>18323.019097222219</v>
       </c>
       <c r="B270">
         <v>0.25400001</v>
@@ -2605,7 +2590,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <v>18322.969097222223</v>
+        <v>18323.041550925929</v>
       </c>
       <c r="B271">
         <v>0.25400001</v>
@@ -2613,7 +2598,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
-        <v>18322.972800925927</v>
+        <v>18323.048611111109</v>
       </c>
       <c r="B272">
         <v>0.25400001</v>
@@ -2621,7 +2606,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>18323.01284722222</v>
+        <v>18323.05</v>
       </c>
       <c r="B273">
         <v>0.25400001</v>
@@ -2629,7 +2614,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <v>18323.019097222223</v>
+        <v>18323.05127314815</v>
       </c>
       <c r="B274">
         <v>0.25400001</v>
@@ -2637,7 +2622,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <v>18323.041550925926</v>
+        <v>18323.056828703699</v>
       </c>
       <c r="B275">
         <v>0.25400001</v>
@@ -2645,7 +2630,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
-        <v>18323.048611111109</v>
+        <v>18323.060879629629</v>
       </c>
       <c r="B276">
         <v>0.25400001</v>
@@ -2653,7 +2638,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
-        <v>18323.05</v>
+        <v>18323.062962962958</v>
       </c>
       <c r="B277">
         <v>0.25400001</v>
@@ -2661,7 +2646,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <v>18323.051273148147</v>
+        <v>18323.06481481481</v>
       </c>
       <c r="B278">
         <v>0.25400001</v>
@@ -2669,7 +2654,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
-        <v>18323.056828703702</v>
+        <v>18323.066782407412</v>
       </c>
       <c r="B279">
         <v>0.25400001</v>
@@ -2677,7 +2662,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
-        <v>18323.060879629629</v>
+        <v>18323.06863425926</v>
       </c>
       <c r="B280">
         <v>0.25400001</v>
@@ -2685,7 +2670,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <v>18323.062962962962</v>
+        <v>18323.069328703699</v>
       </c>
       <c r="B281">
         <v>0.25400001</v>
@@ -2693,7 +2678,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
-        <v>18323.064814814814</v>
+        <v>18323.070254629631</v>
       </c>
       <c r="B282">
         <v>0.25400001</v>
@@ -2701,7 +2686,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
-        <v>18323.066782407408</v>
+        <v>18323.07164351852</v>
       </c>
       <c r="B283">
         <v>0.25400001</v>
@@ -2709,7 +2694,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
-        <v>18323.06863425926</v>
+        <v>18323.074305555561</v>
       </c>
       <c r="B284">
         <v>0.25400001</v>
@@ -2717,7 +2702,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
-        <v>18323.069328703703</v>
+        <v>18323.082986111109</v>
       </c>
       <c r="B285">
         <v>0.25400001</v>
@@ -2725,7 +2710,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
-        <v>18323.070254629631</v>
+        <v>18323.08391203704</v>
       </c>
       <c r="B286">
         <v>0.25400001</v>
@@ -2733,7 +2718,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
-        <v>18323.071643518517</v>
+        <v>18323.08518518518</v>
       </c>
       <c r="B287">
         <v>0.25400001</v>
@@ -2741,7 +2726,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
-        <v>18323.074305555554</v>
+        <v>18323.091782407409</v>
       </c>
       <c r="B288">
         <v>0.25400001</v>
@@ -2749,7 +2734,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
-        <v>18323.082986111112</v>
+        <v>18323.092476851849</v>
       </c>
       <c r="B289">
         <v>0.25400001</v>
@@ -2757,7 +2742,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
-        <v>18323.083912037036</v>
+        <v>18323.093634259261</v>
       </c>
       <c r="B290">
         <v>0.25400001</v>
@@ -2765,7 +2750,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
-        <v>18323.085185185184</v>
+        <v>18323.09513888889</v>
       </c>
       <c r="B291">
         <v>0.25400001</v>
@@ -2773,7 +2758,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
-        <v>18323.091782407406</v>
+        <v>18323.09710648148</v>
       </c>
       <c r="B292">
         <v>0.25400001</v>
@@ -2781,7 +2766,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
-        <v>18323.092476851853</v>
+        <v>18323.098958333328</v>
       </c>
       <c r="B293">
         <v>0.25400001</v>
@@ -2789,7 +2774,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
-        <v>18323.093634259258</v>
+        <v>18323.1056712963</v>
       </c>
       <c r="B294">
         <v>0.25400001</v>
@@ -2797,7 +2782,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
-        <v>18323.09513888889</v>
+        <v>18323.106828703709</v>
       </c>
       <c r="B295">
         <v>0.25400001</v>
@@ -2805,7 +2790,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
-        <v>18323.09710648148</v>
+        <v>18323.120949074069</v>
       </c>
       <c r="B296">
         <v>0.25400001</v>
@@ -2813,7 +2798,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
-        <v>18323.098958333332</v>
+        <v>18323.122800925921</v>
       </c>
       <c r="B297">
         <v>0.25400001</v>
@@ -2821,7 +2806,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
-        <v>18323.105671296296</v>
+        <v>18323.12743055556</v>
       </c>
       <c r="B298">
         <v>0.25400001</v>
@@ -2829,7 +2814,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
-        <v>18323.106828703705</v>
+        <v>18323.12939814815</v>
       </c>
       <c r="B299">
         <v>0.25400001</v>
@@ -2837,7 +2822,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
-        <v>18323.120949074073</v>
+        <v>18323.130671296301</v>
       </c>
       <c r="B300">
         <v>0.25400001</v>
@@ -2845,7 +2830,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
-        <v>18323.122800925925</v>
+        <v>18323.131597222218</v>
       </c>
       <c r="B301">
         <v>0.25400001</v>
@@ -2853,7 +2838,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
-        <v>18323.127430555556</v>
+        <v>18323.135648148149</v>
       </c>
       <c r="B302">
         <v>0.25400001</v>
@@ -2861,7 +2846,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
-        <v>18323.129398148147</v>
+        <v>18323.13969907408</v>
       </c>
       <c r="B303">
         <v>0.25400001</v>
@@ -2869,7 +2854,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
-        <v>18323.130671296298</v>
+        <v>18323.143287037041</v>
       </c>
       <c r="B304">
         <v>0.25400001</v>
@@ -2877,7 +2862,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
-        <v>18323.131597222222</v>
+        <v>18323.14907407407</v>
       </c>
       <c r="B305">
         <v>0.25400001</v>
@@ -2885,7 +2870,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
-        <v>18323.135648148149</v>
+        <v>18323.157407407409</v>
       </c>
       <c r="B306">
         <v>0.25400001</v>
@@ -2893,7 +2878,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
-        <v>18323.139699074072</v>
+        <v>18323.16064814815</v>
       </c>
       <c r="B307">
         <v>0.25400001</v>
@@ -2901,7 +2886,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
-        <v>18323.143287037037</v>
+        <v>18323.165046296301</v>
       </c>
       <c r="B308">
         <v>0.25400001</v>
@@ -2909,7 +2894,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
-        <v>18323.149074074074</v>
+        <v>18323.169791666671</v>
       </c>
       <c r="B309">
         <v>0.25400001</v>
@@ -2917,7 +2902,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
-        <v>18323.157407407409</v>
+        <v>18323.18206018519</v>
       </c>
       <c r="B310">
         <v>0.25400001</v>
@@ -2925,7 +2910,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
-        <v>18323.160648148147</v>
+        <v>18323.190624999999</v>
       </c>
       <c r="B311">
         <v>0.25400001</v>
@@ -2933,7 +2918,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
-        <v>18323.165046296297</v>
+        <v>18323.193055555559</v>
       </c>
       <c r="B312">
         <v>0.25400001</v>
@@ -2941,7 +2926,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
-        <v>18323.169791666667</v>
+        <v>18323.194791666669</v>
       </c>
       <c r="B313">
         <v>0.25400001</v>
@@ -2949,7 +2934,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
-        <v>18323.182060185187</v>
+        <v>18323.196759259259</v>
       </c>
       <c r="B314">
         <v>0.25400001</v>
@@ -2957,7 +2942,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
-        <v>18323.190624999999</v>
+        <v>18323.200231481482</v>
       </c>
       <c r="B315">
         <v>0.25400001</v>
@@ -2965,7 +2950,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
-        <v>18323.193055555555</v>
+        <v>18323.203240740739</v>
       </c>
       <c r="B316">
         <v>0.25400001</v>
@@ -2973,7 +2958,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
-        <v>18323.194791666665</v>
+        <v>18323.207175925931</v>
       </c>
       <c r="B317">
         <v>0.25400001</v>
@@ -2981,7 +2966,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
-        <v>18323.196759259259</v>
+        <v>18323.210069444449</v>
       </c>
       <c r="B318">
         <v>0.25400001</v>
@@ -2989,7 +2974,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
-        <v>18323.200231481482</v>
+        <v>18323.21261574074</v>
       </c>
       <c r="B319">
         <v>0.25400001</v>
@@ -2997,7 +2982,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
-        <v>18323.203240740742</v>
+        <v>18323.214467592588</v>
       </c>
       <c r="B320">
         <v>0.25400001</v>
@@ -3005,7 +2990,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
-        <v>18323.207175925927</v>
+        <v>18323.21597222222</v>
       </c>
       <c r="B321">
         <v>0.25400001</v>
@@ -3013,7 +2998,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
-        <v>18323.210069444445</v>
+        <v>18323.21805555555</v>
       </c>
       <c r="B322">
         <v>0.25400001</v>
@@ -3021,7 +3006,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
-        <v>18323.21261574074</v>
+        <v>18323.219560185189</v>
       </c>
       <c r="B323">
         <v>0.25400001</v>
@@ -3029,7 +3014,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
-        <v>18323.214467592592</v>
+        <v>18323.221296296291</v>
       </c>
       <c r="B324">
         <v>0.25400001</v>
@@ -3037,7 +3022,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
-        <v>18323.21597222222</v>
+        <v>18323.22349537037</v>
       </c>
       <c r="B325">
         <v>0.25400001</v>
@@ -3045,7 +3030,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
-        <v>18323.218055555557</v>
+        <v>18323.225578703699</v>
       </c>
       <c r="B326">
         <v>0.25400001</v>
@@ -3053,7 +3038,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
-        <v>18323.219560185185</v>
+        <v>18323.228819444441</v>
       </c>
       <c r="B327">
         <v>0.25400001</v>
@@ -3061,7 +3046,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
-        <v>18323.221296296295</v>
+        <v>18323.231828703709</v>
       </c>
       <c r="B328">
         <v>0.25400001</v>
@@ -3069,7 +3054,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
-        <v>18323.22349537037</v>
+        <v>18323.237962962961</v>
       </c>
       <c r="B329">
         <v>0.25400001</v>
@@ -3077,7 +3062,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
-        <v>18323.225578703703</v>
+        <v>18323.41481481482</v>
       </c>
       <c r="B330">
         <v>0.25400001</v>
@@ -3085,7 +3070,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
-        <v>18323.228819444445</v>
+        <v>18323.492013888888</v>
       </c>
       <c r="B331">
         <v>0.25400001</v>
@@ -3093,7 +3078,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
-        <v>18323.231828703705</v>
+        <v>18323.49560185185</v>
       </c>
       <c r="B332">
         <v>0.25400001</v>
@@ -3101,7 +3086,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
-        <v>18323.237962962961</v>
+        <v>18323.49756944444</v>
       </c>
       <c r="B333">
         <v>0.25400001</v>
@@ -3109,7 +3094,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
-        <v>18323.414814814816</v>
+        <v>18323.498842592591</v>
       </c>
       <c r="B334">
         <v>0.25400001</v>
@@ -3117,7 +3102,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
-        <v>18323.492013888888</v>
+        <v>18323.50069444445</v>
       </c>
       <c r="B335">
         <v>0.25400001</v>
@@ -3125,7 +3110,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
-        <v>18323.495601851853</v>
+        <v>18323.501967592591</v>
       </c>
       <c r="B336">
         <v>0.25400001</v>
@@ -3133,7 +3118,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
-        <v>18323.497569444444</v>
+        <v>18323.503819444439</v>
       </c>
       <c r="B337">
         <v>0.25400001</v>
@@ -3141,7 +3126,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
-        <v>18323.498842592591</v>
+        <v>18323.50914351852</v>
       </c>
       <c r="B338">
         <v>0.25400001</v>
@@ -3149,7 +3134,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
-        <v>18323.500694444443</v>
+        <v>18323.510763888891</v>
       </c>
       <c r="B339">
         <v>0.25400001</v>
@@ -3157,7 +3142,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
-        <v>18323.501967592594</v>
+        <v>18323.51284722222</v>
       </c>
       <c r="B340">
         <v>0.25400001</v>
@@ -3165,7 +3150,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
-        <v>18323.503819444446</v>
+        <v>18323.51423611111</v>
       </c>
       <c r="B341">
         <v>0.25400001</v>
@@ -3173,7 +3158,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
-        <v>18323.509143518517</v>
+        <v>18323.515740740739</v>
       </c>
       <c r="B342">
         <v>0.25400001</v>
@@ -3181,7 +3166,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
-        <v>18323.510763888888</v>
+        <v>18323.517476851848</v>
       </c>
       <c r="B343">
         <v>0.25400001</v>
@@ -3189,7 +3174,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
-        <v>18323.51284722222</v>
+        <v>18323.572569444441</v>
       </c>
       <c r="B344">
         <v>0.25400001</v>
@@ -3197,7 +3182,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
-        <v>18323.51423611111</v>
+        <v>18323.575115740739</v>
       </c>
       <c r="B345">
         <v>0.25400001</v>
@@ -3205,342 +3190,13 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
-        <v>18323.515740740742</v>
+        <v>18323.57673611111</v>
       </c>
       <c r="B346">
-        <v>0.25400001</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="2">
-        <v>18323.517476851852</v>
-      </c>
-      <c r="B347">
-        <v>0.25400001</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="2">
-        <v>18323.572569444445</v>
-      </c>
-      <c r="B348">
-        <v>0.25400001</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="2">
-        <v>18323.575115740739</v>
-      </c>
-      <c r="B349">
-        <v>0.25400001</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="2">
-        <v>18323.57673611111</v>
-      </c>
-      <c r="B350">
         <v>0.25400001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="21cacd0d90dbd8beb6fc12ad84d4cd0e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b418c8325abc32123734ac979891270" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
-    <xsd:import namespace="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="23" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="24" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="02ea596c-bf3f-4512-ad68-024a720c79b2" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="307c9898-a061-40be-acbc-74b50301d7f8" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ff3aeec9-456a-4e5c-84fd-d1a0d9fd1185}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="959569b2-1f16-4dd0-b5ed-bb064e5cd07e">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFEF5269-49F5-450E-A86B-ED1469C4DB4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
-    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4372D80-45EE-4CDF-A20C-5A944B56B210}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/demo_data/timeoftips.xlsx
+++ b/demo_data/timeoftips.xlsx
@@ -1,31 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duyn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/rainfall_flow_calculator_shiny/demo_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0DBA5F-C6BC-4A22-A987-792D5A2998D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7E0DBA5F-C6BC-4A22-A987-792D5A2998D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E89BE582-43D6-476D-8499-86FF1BDF0049}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId1"/>
+    <sheet name="rain_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>datetime</t>
   </si>
   <si>
     <t>rain</t>
+  </si>
+  <si>
+    <t>Application Usage Guide</t>
+  </si>
+  <si>
+    <t>=======================</t>
+  </si>
+  <si>
+    <t>This guide provides instructions for using the application and outlines the data requirements for successful analysis.</t>
+  </si>
+  <si>
+    <t>Analysis Types</t>
+  </si>
+  <si>
+    <t>--------------</t>
+  </si>
+  <si>
+    <t>IMPORTANT: The column names and tab names in the templates (both rainfall and flow) must remain unchanged for accurate analysis and app's functionality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The application supports two types of analysis: Rainfall Analysis and Flow Analysis. In the zip package that </t>
+  </si>
+  <si>
+    <t>Rainfall Analysis</t>
+  </si>
+  <si>
+    <t>-----------------</t>
+  </si>
+  <si>
+    <t>To perform a Rainfall Analysis, follow these steps:</t>
+  </si>
+  <si>
+    <t>1. Open the rainfall template (rainfall_template.xlsx).</t>
+  </si>
+  <si>
+    <t>2. Copy and paste the rainfall data into the template.</t>
+  </si>
+  <si>
+    <t>3. Ensure that the rain gauge values are entered into the designated rain column within the template.</t>
+  </si>
+  <si>
+    <t>Demo data is available for flow analysis under demo_data folder.</t>
+  </si>
+  <si>
+    <t>Flow Analysis</t>
+  </si>
+  <si>
+    <t>-------------</t>
+  </si>
+  <si>
+    <t>To perform a Flow Analysis, follow these steps:</t>
+  </si>
+  <si>
+    <t>1. Open the flow template (flow_template.xlsx).</t>
+  </si>
+  <si>
+    <t>2. Copy and paste the flow data from your datasheet into the downloaded template.</t>
+  </si>
+  <si>
+    <t>3. Accommodate up to four flows for analysis: inflow 1, inflow 2, outflow, and bypass.</t>
+  </si>
+  <si>
+    <t>4. Refer to the Methods tab in the template for an illustration of the possible flow type configurations.</t>
+  </si>
+  <si>
+    <t>5. You are not required to submit data for all four flow types; any combination of flow types is acceptable.</t>
+  </si>
+  <si>
+    <t>IMPORTANT: If any of the flow data types are not applicable, leave the corresponding tab blank. Do not modify the columns or the tab names.</t>
+  </si>
+  <si>
+    <t>Data Requirements</t>
+  </si>
+  <si>
+    <t>To ensure successful analysis, the uploaded Excel spreadsheet must conform to the following requirements:</t>
+  </si>
+  <si>
+    <t>- Flow must be reported in units of L/s, gpm, or cfs.</t>
+  </si>
+  <si>
+    <t>- The timestamp should be in 24-hour format (mm/dd/yy hh:mm:ss).</t>
+  </si>
+  <si>
+    <t>- Each tab must contain exactly two columns: one for the sample timestamps data and one for the associated values.</t>
+  </si>
+  <si>
+    <t>- The column names and the tab names must not be changed from the template.</t>
+  </si>
+  <si>
+    <t>Please ensure that your data meets these requirements before using the application for analysis.</t>
+  </si>
+  <si>
+    <t>For further assistance or inquiries, please contact our support team at stormwater@sccwrp.org</t>
   </si>
 </sst>
 </file>
@@ -35,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +141,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,12 +173,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,11 +517,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF4170-7EED-4E9B-820E-5BCCCE7FD0EC}">
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,6 +3488,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="21cacd0d90dbd8beb6fc12ad84d4cd0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b418c8325abc32123734ac979891270" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3461,19 +3756,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD7619C4-8058-424A-BD67-AF0F08C136BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BEA641F-F685-4EAC-AC95-7579142D3138}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BEA641F-F685-4EAC-AC95-7579142D3138}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD7619C4-8058-424A-BD67-AF0F08C136BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
+    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/demo_data/timeoftips.xlsx
+++ b/demo_data/timeoftips.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/rainfall_flow_calculator_shiny/demo_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7E0DBA5F-C6BC-4A22-A987-792D5A2998D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E89BE582-43D6-476D-8499-86FF1BDF0049}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{7E0DBA5F-C6BC-4A22-A987-792D5A2998D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F4B2605-A818-4D7B-BF06-1BC9B8111C33}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,105 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>datetime</t>
   </si>
   <si>
     <t>rain</t>
-  </si>
-  <si>
-    <t>Application Usage Guide</t>
-  </si>
-  <si>
-    <t>=======================</t>
-  </si>
-  <si>
-    <t>This guide provides instructions for using the application and outlines the data requirements for successful analysis.</t>
-  </si>
-  <si>
-    <t>Analysis Types</t>
-  </si>
-  <si>
-    <t>--------------</t>
-  </si>
-  <si>
-    <t>IMPORTANT: The column names and tab names in the templates (both rainfall and flow) must remain unchanged for accurate analysis and app's functionality.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The application supports two types of analysis: Rainfall Analysis and Flow Analysis. In the zip package that </t>
-  </si>
-  <si>
-    <t>Rainfall Analysis</t>
-  </si>
-  <si>
-    <t>-----------------</t>
-  </si>
-  <si>
-    <t>To perform a Rainfall Analysis, follow these steps:</t>
-  </si>
-  <si>
-    <t>1. Open the rainfall template (rainfall_template.xlsx).</t>
-  </si>
-  <si>
-    <t>2. Copy and paste the rainfall data into the template.</t>
-  </si>
-  <si>
-    <t>3. Ensure that the rain gauge values are entered into the designated rain column within the template.</t>
-  </si>
-  <si>
-    <t>Demo data is available for flow analysis under demo_data folder.</t>
-  </si>
-  <si>
-    <t>Flow Analysis</t>
-  </si>
-  <si>
-    <t>-------------</t>
-  </si>
-  <si>
-    <t>To perform a Flow Analysis, follow these steps:</t>
-  </si>
-  <si>
-    <t>1. Open the flow template (flow_template.xlsx).</t>
-  </si>
-  <si>
-    <t>2. Copy and paste the flow data from your datasheet into the downloaded template.</t>
-  </si>
-  <si>
-    <t>3. Accommodate up to four flows for analysis: inflow 1, inflow 2, outflow, and bypass.</t>
-  </si>
-  <si>
-    <t>4. Refer to the Methods tab in the template for an illustration of the possible flow type configurations.</t>
-  </si>
-  <si>
-    <t>5. You are not required to submit data for all four flow types; any combination of flow types is acceptable.</t>
-  </si>
-  <si>
-    <t>IMPORTANT: If any of the flow data types are not applicable, leave the corresponding tab blank. Do not modify the columns or the tab names.</t>
-  </si>
-  <si>
-    <t>Data Requirements</t>
-  </si>
-  <si>
-    <t>To ensure successful analysis, the uploaded Excel spreadsheet must conform to the following requirements:</t>
-  </si>
-  <si>
-    <t>- Flow must be reported in units of L/s, gpm, or cfs.</t>
-  </si>
-  <si>
-    <t>- The timestamp should be in 24-hour format (mm/dd/yy hh:mm:ss).</t>
-  </si>
-  <si>
-    <t>- Each tab must contain exactly two columns: one for the sample timestamps data and one for the associated values.</t>
-  </si>
-  <si>
-    <t>- The column names and the tab names must not be changed from the template.</t>
-  </si>
-  <si>
-    <t>Please ensure that your data meets these requirements before using the application for analysis.</t>
-  </si>
-  <si>
-    <t>For further assistance or inquiries, please contact our support team at stormwater@sccwrp.org</t>
   </si>
 </sst>
 </file>
@@ -197,10 +104,543 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9591675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723FA7BB-1B5B-C397-A9C1-99D64ED14C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="19050"/>
+          <a:ext cx="9544050" cy="6629400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Application Usage Guide</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=======================</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>This guide provides instructions for using the application and outlines the data requirements for successful analysis.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Analysis Types</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--------------</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IMPORTANT: The column names and tab names in the templates (both rainfall and flow) must remain unchanged for accurate analysis and app's functionality.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The application supports two types of analysis: Rainfall Analysis and Flow Analysis. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>---------------------</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rainfall Analysis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: The user is advised to copy and paste the rainfall data, whether it is in the form of 1-minute or time-of-tips data, into the downloaded template. It is important to note that the rain gauge values must be entered into the designated rain column within the template. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A user can submit a continuous rainfall record without skipping any timestamps, containing multiple events in a single file.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Demo data are available on the Shin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>y App.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>---------------------</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Flow</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Analysis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Flow data should be copy-pasted from the user's datasheet to the downloaded data template. Up to four flows can be accomodated for analysis. The available flow types are inflow 1, inflow 2, outflow and bypass. Refer to the Methods tab for an illustration of the possible flow type configurations. A user does not need to submit all four types, any combination of the flow types is acceptable. A user can only submit flow data for a single rain event. If any of the data types are not applicable, leave the tab blank (as is)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Demo data are available on the Shin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>y App.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>---------------------</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Data Requirements</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>---------------------</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>To ensure successful analysis, the uploaded Excel spreadsheet must conform to the following requirements:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Flow must be reported in units of L/s, gpm, or cfs.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- The timestamp should be in 24-hour format (mm/dd/yy hh:mm:ss).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Each tab must contain exactly two columns: one for the sample timestamps data and one for the associated values.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- The column names and the tab names must not be changed from the template.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Please ensure that your data meets these requirements before using the application for analysis.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>For further assistance or inquiries, please contact our support team at stormwater@sccwrp.org</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -238,9 +678,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,26 +713,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,26 +748,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,9 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF4170-7EED-4E9B-820E-5BCCCE7FD0EC}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -530,173 +934,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A1" s="3"/>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="3"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3488,17 +3827,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="21cacd0d90dbd8beb6fc12ad84d4cd0e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b418c8325abc32123734ac979891270" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="582b150a9eb9a8984bd6398cf909f49d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a4808acce3a6e68b39fbd804e31fb38" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
     <xsd:import namespace="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
@@ -3525,6 +3855,7 @@
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3613,6 +3944,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="26" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3756,16 +4092,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BEA641F-F685-4EAC-AC95-7579142D3138}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD7619C4-8058-424A-BD67-AF0F08C136BA}">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19A2BEBF-A9CC-4951-A540-54F8E35E3516}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -3782,4 +4132,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7F155B1-9F41-41BA-903F-143B0B7D922B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
+    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BEA641F-F685-4EAC-AC95-7579142D3138}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/demo_data/timeoftips.xlsx
+++ b/demo_data/timeoftips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/rainfall_flow_calculator_shiny/demo_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/PartTimers/Nick Lombardo/Bioretention/rainfall_flow_analysis/demo_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{7E0DBA5F-C6BC-4A22-A987-792D5A2998D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F4B2605-A818-4D7B-BF06-1BC9B8111C33}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{7E0DBA5F-C6BC-4A22-A987-792D5A2998D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E002CDF-B621-426E-A24D-310D3F2DD6A9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -80,13 +80,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,6 +640,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -934,103 +941,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+      <c r="A1" s="2"/>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1043,18 +1050,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B346"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1062,7 +1067,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>18308.707638888889</v>
       </c>
       <c r="B2">
@@ -1070,7 +1075,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>18308.708449074071</v>
       </c>
       <c r="B3">
@@ -1078,7 +1083,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>18308.709143518521</v>
       </c>
       <c r="B4">
@@ -1086,7 +1091,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>18308.709953703699</v>
       </c>
       <c r="B5">
@@ -1094,7 +1099,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>18308.71157407407</v>
       </c>
       <c r="B6">
@@ -1102,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>18308.71261574074</v>
       </c>
       <c r="B7">
@@ -1110,7 +1115,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>18308.713773148149</v>
       </c>
       <c r="B8">
@@ -1118,7 +1123,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>18308.714930555561</v>
       </c>
       <c r="B9">
@@ -1126,7 +1131,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>18308.71631944444</v>
       </c>
       <c r="B10">
@@ -1134,7 +1139,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>18308.717245370372</v>
       </c>
       <c r="B11">
@@ -1142,7 +1147,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>18308.720717592591</v>
       </c>
       <c r="B12">
@@ -1150,7 +1155,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>18308.721412037041</v>
       </c>
       <c r="B13">
@@ -1158,7 +1163,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>18308.721874999999</v>
       </c>
       <c r="B14">
@@ -1166,7 +1171,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>18308.726041666669</v>
       </c>
       <c r="B15">
@@ -1174,7 +1179,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>18315.895949074071</v>
       </c>
       <c r="B16">
@@ -1182,7 +1187,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>18317.18136574074</v>
       </c>
       <c r="B17">
@@ -1190,7 +1195,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>18317.183449074069</v>
       </c>
       <c r="B18">
@@ -1198,7 +1203,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>18317.186921296299</v>
       </c>
       <c r="B19">
@@ -1206,7 +1211,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>18317.192824074071</v>
       </c>
       <c r="B20">
@@ -1214,7 +1219,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>18317.248842592591</v>
       </c>
       <c r="B21">
@@ -1222,7 +1227,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>18317.251504629628</v>
       </c>
       <c r="B22">
@@ -1230,7 +1235,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>18317.255208333328</v>
       </c>
       <c r="B23">
@@ -1238,7 +1243,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>18317.25949074074</v>
       </c>
       <c r="B24">
@@ -1246,7 +1251,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>18317.26701388889</v>
       </c>
       <c r="B25">
@@ -1254,7 +1259,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>18317.281018518519</v>
       </c>
       <c r="B26">
@@ -1262,7 +1267,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>18317.308449074069</v>
       </c>
       <c r="B27">
@@ -1270,7 +1275,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>18317.323958333331</v>
       </c>
       <c r="B28">
@@ -1278,7 +1283,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>18317.417824074069</v>
       </c>
       <c r="B29">
@@ -1286,7 +1291,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>18317.42662037037</v>
       </c>
       <c r="B30">
@@ -1294,7 +1299,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>18317.432986111111</v>
       </c>
       <c r="B31">
@@ -1302,7 +1307,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>18317.4412037037</v>
       </c>
       <c r="B32">
@@ -1310,7 +1315,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>18317.453703703701</v>
       </c>
       <c r="B33">
@@ -1318,7 +1323,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="4">
         <v>18317.539236111112</v>
       </c>
       <c r="B34">
@@ -1326,7 +1331,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>18317.53981481482</v>
       </c>
       <c r="B35">
@@ -1334,7 +1339,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>18317.540277777782</v>
       </c>
       <c r="B36">
@@ -1342,7 +1347,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>18317.541203703699</v>
       </c>
       <c r="B37">
@@ -1350,7 +1355,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="4">
         <v>18317.542592592588</v>
       </c>
       <c r="B38">
@@ -1358,7 +1363,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="4">
         <v>18317.54444444444</v>
       </c>
       <c r="B39">
@@ -1366,7 +1371,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="4">
         <v>18317.862847222219</v>
       </c>
       <c r="B40">
@@ -1374,7 +1379,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="4">
         <v>18317.86689814815</v>
       </c>
       <c r="B41">
@@ -1382,7 +1387,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="4">
         <v>18317.876273148151</v>
       </c>
       <c r="B42">
@@ -1390,7 +1395,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="4">
         <v>18317.89675925926</v>
       </c>
       <c r="B43">
@@ -1398,7 +1403,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="4">
         <v>18317.915509259259</v>
       </c>
       <c r="B44">
@@ -1406,7 +1411,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="4">
         <v>18317.925694444439</v>
       </c>
       <c r="B45">
@@ -1414,7 +1419,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="4">
         <v>18317.93171296296</v>
       </c>
       <c r="B46">
@@ -1422,7 +1427,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="4">
         <v>18317.935763888891</v>
       </c>
       <c r="B47">
@@ -1430,7 +1435,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="4">
         <v>18318.290972222221</v>
       </c>
       <c r="B48">
@@ -1438,7 +1443,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="4">
         <v>18318.609143518519</v>
       </c>
       <c r="B49">
@@ -1446,7 +1451,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="4">
         <v>18318.663888888888</v>
       </c>
       <c r="B50">
@@ -1454,7 +1459,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="4">
         <v>18318.673958333329</v>
       </c>
       <c r="B51">
@@ -1462,7 +1467,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="4">
         <v>18318.68240740741</v>
       </c>
       <c r="B52">
@@ -1470,7 +1475,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="4">
         <v>18318.692824074071</v>
       </c>
       <c r="B53">
@@ -1478,7 +1483,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="4">
         <v>18318.708101851851</v>
       </c>
       <c r="B54">
@@ -1486,7 +1491,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="4">
         <v>18318.725115740741</v>
       </c>
       <c r="B55">
@@ -1494,7 +1499,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="4">
         <v>18318.735532407409</v>
       </c>
       <c r="B56">
@@ -1502,7 +1507,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="4">
         <v>18318.745833333331</v>
       </c>
       <c r="B57">
@@ -1510,7 +1515,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="4">
         <v>18318.753819444439</v>
       </c>
       <c r="B58">
@@ -1518,7 +1523,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="4">
         <v>18318.792939814819</v>
       </c>
       <c r="B59">
@@ -1526,7 +1531,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="4">
         <v>18319.127083333329</v>
       </c>
       <c r="B60">
@@ -1534,7 +1539,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="4">
         <v>18319.131944444449</v>
       </c>
       <c r="B61">
@@ -1542,7 +1547,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="4">
         <v>18319.133217592589</v>
       </c>
       <c r="B62">
@@ -1550,7 +1555,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="A63" s="4">
         <v>18319.134259259259</v>
       </c>
       <c r="B63">
@@ -1558,7 +1563,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="A64" s="4">
         <v>18319.136342592588</v>
       </c>
       <c r="B64">
@@ -1566,7 +1571,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="4">
         <v>18319.137500000001</v>
       </c>
       <c r="B65">
@@ -1574,7 +1579,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="4">
         <v>18319.138541666671</v>
       </c>
       <c r="B66">
@@ -1582,7 +1587,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="A67" s="4">
         <v>18319.139467592591</v>
       </c>
       <c r="B67">
@@ -1590,7 +1595,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="4">
         <v>18319.140393518519</v>
       </c>
       <c r="B68">
@@ -1598,7 +1603,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="A69" s="4">
         <v>18319.14131944445</v>
       </c>
       <c r="B69">
@@ -1606,7 +1611,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="4">
         <v>18319.14201388889</v>
       </c>
       <c r="B70">
@@ -1614,7 +1619,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="4">
         <v>18319.142824074079</v>
       </c>
       <c r="B71">
@@ -1622,7 +1627,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="A72" s="4">
         <v>18319.14340277778</v>
       </c>
       <c r="B72">
@@ -1630,7 +1635,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="4">
         <v>18319.144212962961</v>
       </c>
       <c r="B73">
@@ -1638,7 +1643,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="4">
         <v>18319.145254629631</v>
       </c>
       <c r="B74">
@@ -1646,7 +1651,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="A75" s="4">
         <v>18319.14606481481</v>
       </c>
       <c r="B75">
@@ -1654,7 +1659,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="A76" s="4">
         <v>18319.148611111112</v>
       </c>
       <c r="B76">
@@ -1662,7 +1667,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="4">
         <v>18319.151273148149</v>
       </c>
       <c r="B77">
@@ -1670,7 +1675,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="4">
         <v>18319.15393518519</v>
       </c>
       <c r="B78">
@@ -1678,7 +1683,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="A79" s="4">
         <v>18319.155787037042</v>
       </c>
       <c r="B79">
@@ -1686,7 +1691,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="A80" s="4">
         <v>18319.15763888889</v>
       </c>
       <c r="B80">
@@ -1694,7 +1699,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="4">
         <v>18319.159143518518</v>
       </c>
       <c r="B81">
@@ -1702,7 +1707,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="4">
         <v>18319.161574074071</v>
       </c>
       <c r="B82">
@@ -1710,7 +1715,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="A83" s="4">
         <v>18319.163888888888</v>
       </c>
       <c r="B83">
@@ -1718,7 +1723,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="4">
         <v>18319.165972222221</v>
       </c>
       <c r="B84">
@@ -1726,7 +1731,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="4">
         <v>18319.1681712963</v>
       </c>
       <c r="B85">
@@ -1734,7 +1739,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="A86" s="4">
         <v>18319.171296296299</v>
       </c>
       <c r="B86">
@@ -1742,7 +1747,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="4">
         <v>18319.177430555559</v>
       </c>
       <c r="B87">
@@ -1750,7 +1755,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="A88" s="4">
         <v>18319.181597222221</v>
       </c>
       <c r="B88">
@@ -1758,7 +1763,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="A89" s="4">
         <v>18319.185879629629</v>
       </c>
       <c r="B89">
@@ -1766,7 +1771,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="4">
         <v>18319.189467592591</v>
       </c>
       <c r="B90">
@@ -1774,7 +1779,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="A91" s="4">
         <v>18319.19259259259</v>
       </c>
       <c r="B91">
@@ -1782,7 +1787,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="A92" s="4">
         <v>18319.19467592593</v>
       </c>
       <c r="B92">
@@ -1790,7 +1795,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="A93" s="4">
         <v>18319.19699074074</v>
       </c>
       <c r="B93">
@@ -1798,7 +1803,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94" s="4">
         <v>18319.199884259258</v>
       </c>
       <c r="B94">
@@ -1806,7 +1811,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+      <c r="A95" s="4">
         <v>18319.203125</v>
       </c>
       <c r="B95">
@@ -1814,7 +1819,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+      <c r="A96" s="4">
         <v>18319.209837962961</v>
       </c>
       <c r="B96">
@@ -1822,7 +1827,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="A97" s="4">
         <v>18319.21770833333</v>
       </c>
       <c r="B97">
@@ -1830,7 +1835,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="4">
         <v>18319.220833333329</v>
       </c>
       <c r="B98">
@@ -1838,7 +1843,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="A99" s="4">
         <v>18319.223611111109</v>
       </c>
       <c r="B99">
@@ -1846,7 +1851,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="A100" s="4">
         <v>18319.227083333331</v>
       </c>
       <c r="B100">
@@ -1854,7 +1859,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="4">
         <v>18319.231712962959</v>
       </c>
       <c r="B101">
@@ -1862,7 +1867,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="A102" s="4">
         <v>18319.234259259261</v>
       </c>
       <c r="B102">
@@ -1870,7 +1875,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="A103" s="4">
         <v>18319.237268518518</v>
       </c>
       <c r="B103">
@@ -1878,7 +1883,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+      <c r="A104" s="4">
         <v>18319.240624999999</v>
       </c>
       <c r="B104">
@@ -1886,7 +1891,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+      <c r="A105" s="4">
         <v>18319.245486111111</v>
       </c>
       <c r="B105">
@@ -1894,7 +1899,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="4">
         <v>18319.24895833333</v>
       </c>
       <c r="B106">
@@ -1902,7 +1907,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+      <c r="A107" s="4">
         <v>18319.252893518518</v>
       </c>
       <c r="B107">
@@ -1910,7 +1915,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="A108" s="4">
         <v>18319.256828703699</v>
       </c>
       <c r="B108">
@@ -1918,7 +1923,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+      <c r="A109" s="4">
         <v>18319.260069444441</v>
       </c>
       <c r="B109">
@@ -1926,7 +1931,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="4">
         <v>18319.26319444444</v>
       </c>
       <c r="B110">
@@ -1934,7 +1939,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+      <c r="A111" s="4">
         <v>18319.26666666667</v>
       </c>
       <c r="B111">
@@ -1942,7 +1947,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="A112" s="4">
         <v>18319.272222222218</v>
       </c>
       <c r="B112">
@@ -1950,7 +1955,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+      <c r="A113" s="4">
         <v>18319.27476851852</v>
       </c>
       <c r="B113">
@@ -1958,7 +1963,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+      <c r="A114" s="4">
         <v>18319.278009259258</v>
       </c>
       <c r="B114">
@@ -1966,7 +1971,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+      <c r="A115" s="4">
         <v>18319.28194444445</v>
       </c>
       <c r="B115">
@@ -1974,7 +1979,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="A116" s="4">
         <v>18319.2849537037</v>
       </c>
       <c r="B116">
@@ -1982,7 +1987,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+      <c r="A117" s="4">
         <v>18319.289004629631</v>
       </c>
       <c r="B117">
@@ -1990,7 +1995,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="A118" s="4">
         <v>18319.292245370369</v>
       </c>
       <c r="B118">
@@ -1998,7 +2003,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+      <c r="A119" s="4">
         <v>18319.295023148152</v>
       </c>
       <c r="B119">
@@ -2006,7 +2011,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+      <c r="A120" s="4">
         <v>18319.298379629628</v>
       </c>
       <c r="B120">
@@ -2014,7 +2019,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+      <c r="A121" s="4">
         <v>18319.302083333328</v>
       </c>
       <c r="B121">
@@ -2022,7 +2027,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+      <c r="A122" s="4">
         <v>18319.30497685185</v>
       </c>
       <c r="B122">
@@ -2030,7 +2035,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+      <c r="A123" s="4">
         <v>18319.306828703699</v>
       </c>
       <c r="B123">
@@ -2038,7 +2043,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+      <c r="A124" s="4">
         <v>18319.309259259258</v>
       </c>
       <c r="B124">
@@ -2046,7 +2051,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+      <c r="A125" s="4">
         <v>18319.31157407408</v>
       </c>
       <c r="B125">
@@ -2054,7 +2059,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+      <c r="A126" s="4">
         <v>18319.31342592592</v>
       </c>
       <c r="B126">
@@ -2062,7 +2067,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+      <c r="A127" s="4">
         <v>18319.315624999999</v>
       </c>
       <c r="B127">
@@ -2070,7 +2075,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+      <c r="A128" s="4">
         <v>18319.317476851851</v>
       </c>
       <c r="B128">
@@ -2078,7 +2083,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+      <c r="A129" s="4">
         <v>18319.319097222218</v>
       </c>
       <c r="B129">
@@ -2086,7 +2091,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+      <c r="A130" s="4">
         <v>18319.321296296301</v>
       </c>
       <c r="B130">
@@ -2094,7 +2099,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+      <c r="A131" s="4">
         <v>18319.323611111111</v>
       </c>
       <c r="B131">
@@ -2102,7 +2107,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+      <c r="A132" s="4">
         <v>18319.326157407409</v>
       </c>
       <c r="B132">
@@ -2110,7 +2115,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
+      <c r="A133" s="4">
         <v>18319.32777777778</v>
       </c>
       <c r="B133">
@@ -2118,7 +2123,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+      <c r="A134" s="4">
         <v>18319.328935185189</v>
       </c>
       <c r="B134">
@@ -2126,7 +2131,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
+      <c r="A135" s="4">
         <v>18319.330208333329</v>
       </c>
       <c r="B135">
@@ -2134,7 +2139,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
+      <c r="A136" s="4">
         <v>18319.331597222219</v>
       </c>
       <c r="B136">
@@ -2142,7 +2147,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
+      <c r="A137" s="4">
         <v>18319.333333333328</v>
       </c>
       <c r="B137">
@@ -2150,7 +2155,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+      <c r="A138" s="4">
         <v>18319.335069444449</v>
       </c>
       <c r="B138">
@@ -2158,7 +2163,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
+      <c r="A139" s="4">
         <v>18319.336805555551</v>
       </c>
       <c r="B139">
@@ -2166,7 +2171,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
+      <c r="A140" s="4">
         <v>18319.338773148149</v>
       </c>
       <c r="B140">
@@ -2174,7 +2179,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
+      <c r="A141" s="4">
         <v>18319.341087962959</v>
       </c>
       <c r="B141">
@@ -2182,7 +2187,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+      <c r="A142" s="4">
         <v>18319.342939814811</v>
       </c>
       <c r="B142">
@@ -2190,7 +2195,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
+      <c r="A143" s="4">
         <v>18319.344907407409</v>
       </c>
       <c r="B143">
@@ -2198,7 +2203,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+      <c r="A144" s="4">
         <v>18319.346643518518</v>
       </c>
       <c r="B144">
@@ -2206,7 +2211,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+      <c r="A145" s="4">
         <v>18319.348958333328</v>
       </c>
       <c r="B145">
@@ -2214,7 +2219,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+      <c r="A146" s="4">
         <v>18319.353125000001</v>
       </c>
       <c r="B146">
@@ -2222,7 +2227,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+      <c r="A147" s="4">
         <v>18319.357407407409</v>
       </c>
       <c r="B147">
@@ -2230,7 +2235,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+      <c r="A148" s="4">
         <v>18319.361111111109</v>
       </c>
       <c r="B148">
@@ -2238,7 +2243,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
+      <c r="A149" s="4">
         <v>18319.364236111109</v>
       </c>
       <c r="B149">
@@ -2246,7 +2251,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+      <c r="A150" s="4">
         <v>18319.367245370369</v>
       </c>
       <c r="B150">
@@ -2254,7 +2259,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
+      <c r="A151" s="4">
         <v>18319.370486111111</v>
       </c>
       <c r="B151">
@@ -2262,7 +2267,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
+      <c r="A152" s="4">
         <v>18319.373495370372</v>
       </c>
       <c r="B152">
@@ -2270,7 +2275,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
+      <c r="A153" s="4">
         <v>18319.376851851848</v>
       </c>
       <c r="B153">
@@ -2278,7 +2283,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+      <c r="A154" s="4">
         <v>18319.38009259259</v>
       </c>
       <c r="B154">
@@ -2286,7 +2291,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+      <c r="A155" s="4">
         <v>18319.383912037039</v>
       </c>
       <c r="B155">
@@ -2294,7 +2299,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+      <c r="A156" s="4">
         <v>18319.38831018519</v>
       </c>
       <c r="B156">
@@ -2302,7 +2307,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+      <c r="A157" s="4">
         <v>18319.39027777778</v>
       </c>
       <c r="B157">
@@ -2310,7 +2315,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+      <c r="A158" s="4">
         <v>18319.39305555556</v>
       </c>
       <c r="B158">
@@ -2318,7 +2323,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
+      <c r="A159" s="4">
         <v>18319.396643518521</v>
       </c>
       <c r="B159">
@@ -2326,7 +2331,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
+      <c r="A160" s="4">
         <v>18319.399421296301</v>
       </c>
       <c r="B160">
@@ -2334,7 +2339,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
+      <c r="A161" s="4">
         <v>18319.402777777781</v>
       </c>
       <c r="B161">
@@ -2342,7 +2347,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+      <c r="A162" s="4">
         <v>18319.40532407408</v>
       </c>
       <c r="B162">
@@ -2350,7 +2355,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
+      <c r="A163" s="4">
         <v>18319.407407407409</v>
       </c>
       <c r="B163">
@@ -2358,7 +2363,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+      <c r="A164" s="4">
         <v>18319.409490740742</v>
       </c>
       <c r="B164">
@@ -2366,7 +2371,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+      <c r="A165" s="4">
         <v>18319.413541666669</v>
       </c>
       <c r="B165">
@@ -2374,7 +2379,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+      <c r="A166" s="4">
         <v>18319.416666666672</v>
       </c>
       <c r="B166">
@@ -2382,7 +2387,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
+      <c r="A167" s="4">
         <v>18319.419328703709</v>
       </c>
       <c r="B167">
@@ -2390,7 +2395,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
+      <c r="A168" s="4">
         <v>18319.423611111109</v>
       </c>
       <c r="B168">
@@ -2398,7 +2403,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+      <c r="A169" s="4">
         <v>18319.426388888889</v>
       </c>
       <c r="B169">
@@ -2406,7 +2411,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+      <c r="A170" s="4">
         <v>18319.42905092593</v>
       </c>
       <c r="B170">
@@ -2414,7 +2419,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+      <c r="A171" s="4">
         <v>18319.434375000001</v>
       </c>
       <c r="B171">
@@ -2422,7 +2427,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+      <c r="A172" s="4">
         <v>18319.43715277778</v>
       </c>
       <c r="B172">
@@ -2430,7 +2435,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
+      <c r="A173" s="4">
         <v>18319.439467592591</v>
       </c>
       <c r="B173">
@@ -2438,7 +2443,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+      <c r="A174" s="4">
         <v>18319.442361111109</v>
       </c>
       <c r="B174">
@@ -2446,7 +2451,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
+      <c r="A175" s="4">
         <v>18319.445370370369</v>
       </c>
       <c r="B175">
@@ -2454,7 +2459,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
+      <c r="A176" s="4">
         <v>18319.447800925929</v>
       </c>
       <c r="B176">
@@ -2462,7 +2467,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+      <c r="A177" s="4">
         <v>18319.450462962959</v>
       </c>
       <c r="B177">
@@ -2470,7 +2475,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+      <c r="A178" s="4">
         <v>18319.453356481481</v>
       </c>
       <c r="B178">
@@ -2478,7 +2483,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+      <c r="A179" s="4">
         <v>18319.45648148148</v>
       </c>
       <c r="B179">
@@ -2486,7 +2491,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+      <c r="A180" s="4">
         <v>18319.459027777779</v>
       </c>
       <c r="B180">
@@ -2494,7 +2499,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+      <c r="A181" s="4">
         <v>18319.461342592589</v>
       </c>
       <c r="B181">
@@ -2502,7 +2507,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+      <c r="A182" s="4">
         <v>18319.464120370369</v>
       </c>
       <c r="B182">
@@ -2510,7 +2515,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
+      <c r="A183" s="4">
         <v>18319.46643518519</v>
       </c>
       <c r="B183">
@@ -2518,7 +2523,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
+      <c r="A184" s="4">
         <v>18319.468865740739</v>
       </c>
       <c r="B184">
@@ -2526,7 +2531,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
+      <c r="A185" s="4">
         <v>18319.471874999999</v>
       </c>
       <c r="B185">
@@ -2534,7 +2539,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+      <c r="A186" s="4">
         <v>18319.47789351852</v>
       </c>
       <c r="B186">
@@ -2542,7 +2547,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+      <c r="A187" s="4">
         <v>18319.480787037039</v>
       </c>
       <c r="B187">
@@ -2550,7 +2555,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
+      <c r="A188" s="4">
         <v>18319.483912037042</v>
       </c>
       <c r="B188">
@@ -2558,7 +2563,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+      <c r="A189" s="4">
         <v>18319.490740740741</v>
       </c>
       <c r="B189">
@@ -2566,7 +2571,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
+      <c r="A190" s="4">
         <v>18319.501273148151</v>
       </c>
       <c r="B190">
@@ -2574,7 +2579,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
+      <c r="A191" s="4">
         <v>18319.5037037037</v>
       </c>
       <c r="B191">
@@ -2582,7 +2587,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
+      <c r="A192" s="4">
         <v>18319.505671296301</v>
       </c>
       <c r="B192">
@@ -2590,7 +2595,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+      <c r="A193" s="4">
         <v>18319.51423611111</v>
       </c>
       <c r="B193">
@@ -2598,7 +2603,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+      <c r="A194" s="4">
         <v>18319.51805555556</v>
       </c>
       <c r="B194">
@@ -2606,7 +2611,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+      <c r="A195" s="4">
         <v>18319.53055555555</v>
       </c>
       <c r="B195">
@@ -2614,7 +2619,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+      <c r="A196" s="4">
         <v>18319.652777777781</v>
       </c>
       <c r="B196">
@@ -2622,7 +2627,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+      <c r="A197" s="4">
         <v>18319.65694444445</v>
       </c>
       <c r="B197">
@@ -2630,7 +2635,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+      <c r="A198" s="4">
         <v>18319.661226851851</v>
       </c>
       <c r="B198">
@@ -2638,7 +2643,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
+      <c r="A199" s="4">
         <v>18319.66435185185</v>
       </c>
       <c r="B199">
@@ -2646,7 +2651,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+      <c r="A200" s="4">
         <v>18319.668287037039</v>
       </c>
       <c r="B200">
@@ -2654,7 +2659,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
+      <c r="A201" s="4">
         <v>18319.677083333328</v>
       </c>
       <c r="B201">
@@ -2662,7 +2667,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
+      <c r="A202" s="4">
         <v>18319.685879629629</v>
       </c>
       <c r="B202">
@@ -2670,7 +2675,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
+      <c r="A203" s="4">
         <v>18319.691666666669</v>
       </c>
       <c r="B203">
@@ -2678,7 +2683,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
+      <c r="A204" s="4">
         <v>18319.694444444449</v>
       </c>
       <c r="B204">
@@ -2686,7 +2691,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
+      <c r="A205" s="4">
         <v>18319.69768518519</v>
       </c>
       <c r="B205">
@@ -2694,7 +2699,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+      <c r="A206" s="4">
         <v>18319.755555555559</v>
       </c>
       <c r="B206">
@@ -2702,7 +2707,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
+      <c r="A207" s="4">
         <v>18319.804861111112</v>
       </c>
       <c r="B207">
@@ -2710,7 +2715,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+      <c r="A208" s="4">
         <v>18319.808217592588</v>
       </c>
       <c r="B208">
@@ -2718,7 +2723,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
+      <c r="A209" s="4">
         <v>18319.810532407409</v>
       </c>
       <c r="B209">
@@ -2726,7 +2731,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
+      <c r="A210" s="4">
         <v>18319.812731481481</v>
       </c>
       <c r="B210">
@@ -2734,7 +2739,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
+      <c r="A211" s="4">
         <v>18319.8162037037</v>
       </c>
       <c r="B211">
@@ -2742,7 +2747,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
+      <c r="A212" s="4">
         <v>18319.85185185185</v>
       </c>
       <c r="B212">
@@ -2750,7 +2755,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
+      <c r="A213" s="4">
         <v>18319.85706018519</v>
       </c>
       <c r="B213">
@@ -2758,7 +2763,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
+      <c r="A214" s="4">
         <v>18319.901620370369</v>
       </c>
       <c r="B214">
@@ -2766,7 +2771,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
+      <c r="A215" s="4">
         <v>18319.908101851848</v>
       </c>
       <c r="B215">
@@ -2774,7 +2779,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
+      <c r="A216" s="4">
         <v>18319.9181712963</v>
       </c>
       <c r="B216">
@@ -2782,7 +2787,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
+      <c r="A217" s="4">
         <v>18319.923379629628</v>
       </c>
       <c r="B217">
@@ -2790,7 +2795,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
+      <c r="A218" s="4">
         <v>18319.928703703699</v>
       </c>
       <c r="B218">
@@ -2798,7 +2803,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
+      <c r="A219" s="4">
         <v>18319.93240740741</v>
       </c>
       <c r="B219">
@@ -2806,7 +2811,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
+      <c r="A220" s="4">
         <v>18319.93657407408</v>
       </c>
       <c r="B220">
@@ -2814,7 +2819,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
+      <c r="A221" s="4">
         <v>18319.93981481481</v>
       </c>
       <c r="B221">
@@ -2822,7 +2827,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
+      <c r="A222" s="4">
         <v>18319.94456018518</v>
       </c>
       <c r="B222">
@@ -2830,7 +2835,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
+      <c r="A223" s="4">
         <v>18319.956597222219</v>
       </c>
       <c r="B223">
@@ -2838,7 +2843,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
+      <c r="A224" s="4">
         <v>18319.97106481481</v>
       </c>
       <c r="B224">
@@ -2846,7 +2851,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
+      <c r="A225" s="4">
         <v>18319.974074074071</v>
       </c>
       <c r="B225">
@@ -2854,7 +2859,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
+      <c r="A226" s="4">
         <v>18319.97592592593</v>
       </c>
       <c r="B226">
@@ -2862,7 +2867,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
+      <c r="A227" s="4">
         <v>18319.977777777782</v>
       </c>
       <c r="B227">
@@ -2870,7 +2875,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
+      <c r="A228" s="4">
         <v>18320.029629629629</v>
       </c>
       <c r="B228">
@@ -2878,7 +2883,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
+      <c r="A229" s="4">
         <v>18320.032523148151</v>
       </c>
       <c r="B229">
@@ -2886,7 +2891,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
+      <c r="A230" s="4">
         <v>18320.036226851851</v>
       </c>
       <c r="B230">
@@ -2894,7 +2899,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
+      <c r="A231" s="4">
         <v>18320.04212962963</v>
       </c>
       <c r="B231">
@@ -2902,7 +2907,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
+      <c r="A232" s="4">
         <v>18321.740393518521</v>
       </c>
       <c r="B232">
@@ -2910,7 +2915,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
+      <c r="A233" s="4">
         <v>18321.909722222219</v>
       </c>
       <c r="B233">
@@ -2918,7 +2923,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
+      <c r="A234" s="4">
         <v>18322.12638888889</v>
       </c>
       <c r="B234">
@@ -2926,7 +2931,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
+      <c r="A235" s="4">
         <v>18322.145486111109</v>
       </c>
       <c r="B235">
@@ -2934,7 +2939,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
+      <c r="A236" s="4">
         <v>18322.163888888888</v>
       </c>
       <c r="B236">
@@ -2942,7 +2947,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
+      <c r="A237" s="4">
         <v>18322.203356481481</v>
       </c>
       <c r="B237">
@@ -2950,7 +2955,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
+      <c r="A238" s="4">
         <v>18322.204861111109</v>
       </c>
       <c r="B238">
@@ -2958,7 +2963,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
+      <c r="A239" s="4">
         <v>18322.209837962961</v>
       </c>
       <c r="B239">
@@ -2966,7 +2971,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
+      <c r="A240" s="4">
         <v>18322.21168981482</v>
       </c>
       <c r="B240">
@@ -2974,7 +2979,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
+      <c r="A241" s="4">
         <v>18322.213888888891</v>
       </c>
       <c r="B241">
@@ -2982,7 +2987,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
+      <c r="A242" s="4">
         <v>18322.21597222222</v>
       </c>
       <c r="B242">
@@ -2990,7 +2995,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
+      <c r="A243" s="4">
         <v>18322.226388888888</v>
       </c>
       <c r="B243">
@@ -2998,7 +3003,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
+      <c r="A244" s="4">
         <v>18322.914004629631</v>
       </c>
       <c r="B244">
@@ -3006,7 +3011,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
+      <c r="A245" s="4">
         <v>18322.920601851849</v>
       </c>
       <c r="B245">
@@ -3014,7 +3019,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
+      <c r="A246" s="4">
         <v>18322.92627314815</v>
       </c>
       <c r="B246">
@@ -3022,7 +3027,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
+      <c r="A247" s="4">
         <v>18322.92997685185</v>
       </c>
       <c r="B247">
@@ -3030,7 +3035,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
+      <c r="A248" s="4">
         <v>18322.933217592588</v>
       </c>
       <c r="B248">
@@ -3038,7 +3043,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
+      <c r="A249" s="4">
         <v>18322.935995370372</v>
       </c>
       <c r="B249">
@@ -3046,7 +3051,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
+      <c r="A250" s="4">
         <v>18322.938657407409</v>
       </c>
       <c r="B250">
@@ -3054,7 +3059,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
+      <c r="A251" s="4">
         <v>18322.942013888889</v>
       </c>
       <c r="B251">
@@ -3062,7 +3067,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
+      <c r="A252" s="4">
         <v>18322.944328703699</v>
       </c>
       <c r="B252">
@@ -3070,7 +3075,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
+      <c r="A253" s="4">
         <v>18322.945833333331</v>
       </c>
       <c r="B253">
@@ -3078,7 +3083,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
+      <c r="A254" s="4">
         <v>18322.947569444441</v>
       </c>
       <c r="B254">
@@ -3086,7 +3091,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
+      <c r="A255" s="4">
         <v>18322.949189814819</v>
       </c>
       <c r="B255">
@@ -3094,7 +3099,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
+      <c r="A256" s="4">
         <v>18322.951273148152</v>
       </c>
       <c r="B256">
@@ -3102,7 +3107,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
+      <c r="A257" s="4">
         <v>18322.952893518519</v>
       </c>
       <c r="B257">
@@ -3110,7 +3115,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
+      <c r="A258" s="4">
         <v>18322.954398148151</v>
       </c>
       <c r="B258">
@@ -3118,7 +3123,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
+      <c r="A259" s="4">
         <v>18322.955671296291</v>
       </c>
       <c r="B259">
@@ -3126,7 +3131,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
+      <c r="A260" s="4">
         <v>18322.956944444439</v>
       </c>
       <c r="B260">
@@ -3134,7 +3139,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
+      <c r="A261" s="4">
         <v>18322.958101851851</v>
       </c>
       <c r="B261">
@@ -3142,7 +3147,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
+      <c r="A262" s="4">
         <v>18322.959722222218</v>
       </c>
       <c r="B262">
@@ -3150,7 +3155,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
+      <c r="A263" s="4">
         <v>18322.96122685185</v>
       </c>
       <c r="B263">
@@ -3158,7 +3163,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
+      <c r="A264" s="4">
         <v>18322.962847222221</v>
       </c>
       <c r="B264">
@@ -3166,7 +3171,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
+      <c r="A265" s="4">
         <v>18322.964583333331</v>
       </c>
       <c r="B265">
@@ -3174,7 +3179,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
+      <c r="A266" s="4">
         <v>18322.966550925921</v>
       </c>
       <c r="B266">
@@ -3182,7 +3187,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
+      <c r="A267" s="4">
         <v>18322.96909722222</v>
       </c>
       <c r="B267">
@@ -3190,7 +3195,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
+      <c r="A268" s="4">
         <v>18322.972800925931</v>
       </c>
       <c r="B268">
@@ -3198,7 +3203,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
+      <c r="A269" s="4">
         <v>18323.01284722222</v>
       </c>
       <c r="B269">
@@ -3206,7 +3211,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
+      <c r="A270" s="4">
         <v>18323.019097222219</v>
       </c>
       <c r="B270">
@@ -3214,7 +3219,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
+      <c r="A271" s="4">
         <v>18323.041550925929</v>
       </c>
       <c r="B271">
@@ -3222,7 +3227,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
+      <c r="A272" s="4">
         <v>18323.048611111109</v>
       </c>
       <c r="B272">
@@ -3230,7 +3235,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
+      <c r="A273" s="4">
         <v>18323.05</v>
       </c>
       <c r="B273">
@@ -3238,7 +3243,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
+      <c r="A274" s="4">
         <v>18323.05127314815</v>
       </c>
       <c r="B274">
@@ -3246,7 +3251,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
+      <c r="A275" s="4">
         <v>18323.056828703699</v>
       </c>
       <c r="B275">
@@ -3254,7 +3259,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
+      <c r="A276" s="4">
         <v>18323.060879629629</v>
       </c>
       <c r="B276">
@@ -3262,7 +3267,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
+      <c r="A277" s="4">
         <v>18323.062962962958</v>
       </c>
       <c r="B277">
@@ -3270,7 +3275,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
+      <c r="A278" s="4">
         <v>18323.06481481481</v>
       </c>
       <c r="B278">
@@ -3278,7 +3283,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
+      <c r="A279" s="4">
         <v>18323.066782407412</v>
       </c>
       <c r="B279">
@@ -3286,7 +3291,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
+      <c r="A280" s="4">
         <v>18323.06863425926</v>
       </c>
       <c r="B280">
@@ -3294,7 +3299,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
+      <c r="A281" s="4">
         <v>18323.069328703699</v>
       </c>
       <c r="B281">
@@ -3302,7 +3307,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
+      <c r="A282" s="4">
         <v>18323.070254629631</v>
       </c>
       <c r="B282">
@@ -3310,7 +3315,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
+      <c r="A283" s="4">
         <v>18323.07164351852</v>
       </c>
       <c r="B283">
@@ -3318,7 +3323,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
+      <c r="A284" s="4">
         <v>18323.074305555561</v>
       </c>
       <c r="B284">
@@ -3326,7 +3331,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
+      <c r="A285" s="4">
         <v>18323.082986111109</v>
       </c>
       <c r="B285">
@@ -3334,7 +3339,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
+      <c r="A286" s="4">
         <v>18323.08391203704</v>
       </c>
       <c r="B286">
@@ -3342,7 +3347,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
+      <c r="A287" s="4">
         <v>18323.08518518518</v>
       </c>
       <c r="B287">
@@ -3350,7 +3355,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
+      <c r="A288" s="4">
         <v>18323.091782407409</v>
       </c>
       <c r="B288">
@@ -3358,7 +3363,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
+      <c r="A289" s="4">
         <v>18323.092476851849</v>
       </c>
       <c r="B289">
@@ -3366,7 +3371,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
+      <c r="A290" s="4">
         <v>18323.093634259261</v>
       </c>
       <c r="B290">
@@ -3374,7 +3379,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
+      <c r="A291" s="4">
         <v>18323.09513888889</v>
       </c>
       <c r="B291">
@@ -3382,7 +3387,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
+      <c r="A292" s="4">
         <v>18323.09710648148</v>
       </c>
       <c r="B292">
@@ -3390,7 +3395,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
+      <c r="A293" s="4">
         <v>18323.098958333328</v>
       </c>
       <c r="B293">
@@ -3398,7 +3403,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
+      <c r="A294" s="4">
         <v>18323.1056712963</v>
       </c>
       <c r="B294">
@@ -3406,7 +3411,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
+      <c r="A295" s="4">
         <v>18323.106828703709</v>
       </c>
       <c r="B295">
@@ -3414,7 +3419,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
+      <c r="A296" s="4">
         <v>18323.120949074069</v>
       </c>
       <c r="B296">
@@ -3422,7 +3427,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
+      <c r="A297" s="4">
         <v>18323.122800925921</v>
       </c>
       <c r="B297">
@@ -3430,7 +3435,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
+      <c r="A298" s="4">
         <v>18323.12743055556</v>
       </c>
       <c r="B298">
@@ -3438,7 +3443,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
+      <c r="A299" s="4">
         <v>18323.12939814815</v>
       </c>
       <c r="B299">
@@ -3446,7 +3451,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
+      <c r="A300" s="4">
         <v>18323.130671296301</v>
       </c>
       <c r="B300">
@@ -3454,7 +3459,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
+      <c r="A301" s="4">
         <v>18323.131597222218</v>
       </c>
       <c r="B301">
@@ -3462,7 +3467,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="2">
+      <c r="A302" s="4">
         <v>18323.135648148149</v>
       </c>
       <c r="B302">
@@ -3470,7 +3475,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="2">
+      <c r="A303" s="4">
         <v>18323.13969907408</v>
       </c>
       <c r="B303">
@@ -3478,7 +3483,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
+      <c r="A304" s="4">
         <v>18323.143287037041</v>
       </c>
       <c r="B304">
@@ -3486,7 +3491,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="2">
+      <c r="A305" s="4">
         <v>18323.14907407407</v>
       </c>
       <c r="B305">
@@ -3494,7 +3499,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="2">
+      <c r="A306" s="4">
         <v>18323.157407407409</v>
       </c>
       <c r="B306">
@@ -3502,7 +3507,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="2">
+      <c r="A307" s="4">
         <v>18323.16064814815</v>
       </c>
       <c r="B307">
@@ -3510,7 +3515,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="2">
+      <c r="A308" s="4">
         <v>18323.165046296301</v>
       </c>
       <c r="B308">
@@ -3518,7 +3523,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="2">
+      <c r="A309" s="4">
         <v>18323.169791666671</v>
       </c>
       <c r="B309">
@@ -3526,7 +3531,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="2">
+      <c r="A310" s="4">
         <v>18323.18206018519</v>
       </c>
       <c r="B310">
@@ -3534,7 +3539,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="2">
+      <c r="A311" s="4">
         <v>18323.190624999999</v>
       </c>
       <c r="B311">
@@ -3542,7 +3547,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="2">
+      <c r="A312" s="4">
         <v>18323.193055555559</v>
       </c>
       <c r="B312">
@@ -3550,7 +3555,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="2">
+      <c r="A313" s="4">
         <v>18323.194791666669</v>
       </c>
       <c r="B313">
@@ -3558,7 +3563,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="2">
+      <c r="A314" s="4">
         <v>18323.196759259259</v>
       </c>
       <c r="B314">
@@ -3566,7 +3571,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
+      <c r="A315" s="4">
         <v>18323.200231481482</v>
       </c>
       <c r="B315">
@@ -3574,7 +3579,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="2">
+      <c r="A316" s="4">
         <v>18323.203240740739</v>
       </c>
       <c r="B316">
@@ -3582,7 +3587,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="2">
+      <c r="A317" s="4">
         <v>18323.207175925931</v>
       </c>
       <c r="B317">
@@ -3590,7 +3595,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="2">
+      <c r="A318" s="4">
         <v>18323.210069444449</v>
       </c>
       <c r="B318">
@@ -3598,7 +3603,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="2">
+      <c r="A319" s="4">
         <v>18323.21261574074</v>
       </c>
       <c r="B319">
@@ -3606,7 +3611,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="2">
+      <c r="A320" s="4">
         <v>18323.214467592588</v>
       </c>
       <c r="B320">
@@ -3614,7 +3619,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="2">
+      <c r="A321" s="4">
         <v>18323.21597222222</v>
       </c>
       <c r="B321">
@@ -3622,7 +3627,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="2">
+      <c r="A322" s="4">
         <v>18323.21805555555</v>
       </c>
       <c r="B322">
@@ -3630,7 +3635,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="2">
+      <c r="A323" s="4">
         <v>18323.219560185189</v>
       </c>
       <c r="B323">
@@ -3638,7 +3643,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="2">
+      <c r="A324" s="4">
         <v>18323.221296296291</v>
       </c>
       <c r="B324">
@@ -3646,7 +3651,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="2">
+      <c r="A325" s="4">
         <v>18323.22349537037</v>
       </c>
       <c r="B325">
@@ -3654,7 +3659,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="2">
+      <c r="A326" s="4">
         <v>18323.225578703699</v>
       </c>
       <c r="B326">
@@ -3662,7 +3667,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="2">
+      <c r="A327" s="4">
         <v>18323.228819444441</v>
       </c>
       <c r="B327">
@@ -3670,7 +3675,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="2">
+      <c r="A328" s="4">
         <v>18323.231828703709</v>
       </c>
       <c r="B328">
@@ -3678,7 +3683,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="2">
+      <c r="A329" s="4">
         <v>18323.237962962961</v>
       </c>
       <c r="B329">
@@ -3686,7 +3691,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="2">
+      <c r="A330" s="4">
         <v>18323.41481481482</v>
       </c>
       <c r="B330">
@@ -3694,7 +3699,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="2">
+      <c r="A331" s="4">
         <v>18323.492013888888</v>
       </c>
       <c r="B331">
@@ -3702,7 +3707,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="2">
+      <c r="A332" s="4">
         <v>18323.49560185185</v>
       </c>
       <c r="B332">
@@ -3710,7 +3715,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="2">
+      <c r="A333" s="4">
         <v>18323.49756944444</v>
       </c>
       <c r="B333">
@@ -3718,7 +3723,7 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="2">
+      <c r="A334" s="4">
         <v>18323.498842592591</v>
       </c>
       <c r="B334">
@@ -3726,7 +3731,7 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="2">
+      <c r="A335" s="4">
         <v>18323.50069444445</v>
       </c>
       <c r="B335">
@@ -3734,7 +3739,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="2">
+      <c r="A336" s="4">
         <v>18323.501967592591</v>
       </c>
       <c r="B336">
@@ -3742,7 +3747,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="2">
+      <c r="A337" s="4">
         <v>18323.503819444439</v>
       </c>
       <c r="B337">
@@ -3750,7 +3755,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="2">
+      <c r="A338" s="4">
         <v>18323.50914351852</v>
       </c>
       <c r="B338">
@@ -3758,7 +3763,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="2">
+      <c r="A339" s="4">
         <v>18323.510763888891</v>
       </c>
       <c r="B339">
@@ -3766,7 +3771,7 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="2">
+      <c r="A340" s="4">
         <v>18323.51284722222</v>
       </c>
       <c r="B340">
@@ -3774,7 +3779,7 @@
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="2">
+      <c r="A341" s="4">
         <v>18323.51423611111</v>
       </c>
       <c r="B341">
@@ -3782,7 +3787,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="2">
+      <c r="A342" s="4">
         <v>18323.515740740739</v>
       </c>
       <c r="B342">
@@ -3790,7 +3795,7 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="2">
+      <c r="A343" s="4">
         <v>18323.517476851848</v>
       </c>
       <c r="B343">
@@ -3798,7 +3803,7 @@
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="2">
+      <c r="A344" s="4">
         <v>18323.572569444441</v>
       </c>
       <c r="B344">
@@ -3806,7 +3811,7 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="2">
+      <c r="A345" s="4">
         <v>18323.575115740739</v>
       </c>
       <c r="B345">
@@ -3814,7 +3819,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="2">
+      <c r="A346" s="4">
         <v>18323.57673611111</v>
       </c>
       <c r="B346">
